--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_15_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_15_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>753963.365236055</v>
+        <v>748346.8046474161</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18014416.62643907</v>
+        <v>18014416.62643908</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9808165.762114892</v>
+        <v>9808165.762114897</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="C11" t="n">
+        <v>29.73268564672635</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>347.6472557445165</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.15117047355735</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.5718775168518</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>347.6472557445165</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>13.15942029801233</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>75.97147101074981</v>
       </c>
       <c r="I12" t="n">
-        <v>8.099864593737081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>170.4382740666146</v>
@@ -1508,16 +1508,16 @@
         <v>207.8845624928813</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>65.3300582162375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>32.20931375428002</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>183.4770235079133</v>
+        <v>104.3840240323969</v>
       </c>
       <c r="T13" t="n">
         <v>229.1176658249033</v>
@@ -1587,16 +1587,16 @@
         <v>282.5302226215153</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>304.1099116217411</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>347.6472557445166</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>347.6472557445166</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="H14" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>51.58147895005203</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>315.16921740077</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,25 +1688,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8.099864593737074</v>
+        <v>7.482505787846275</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>95.98501294652959</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
         <v>187.4140068734885</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>68.39683771250975</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
@@ -1785,7 +1785,7 @@
         <v>145.0922268306807</v>
       </c>
       <c r="I16" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>248.2160639262167</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.1692174007696</v>
+        <v>306.2077028597703</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>170.4382740666146</v>
@@ -1985,13 +1985,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>138.9212665791033</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>124.2284546486749</v>
       </c>
     </row>
     <row r="19">
@@ -2010,7 +2010,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>113.8868850109377</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>183.4770235079133</v>
+        <v>161.7295649370755</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>191.8208754515553</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>315.1692174007696</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>61.36859143633906</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>111.5736577331194</v>
       </c>
       <c r="T21" t="n">
-        <v>170.4382740666146</v>
+        <v>146.2396390249082</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>16.94036841783763</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>51.4370823014313</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>340.0811406213446</v>
       </c>
       <c r="G23" t="n">
-        <v>406.8166861751919</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>90.8991304605036</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>211.5718775168518</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2402,10 +2402,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>88.32740974554314</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
         <v>123.1874880556995</v>
@@ -2414,10 +2414,10 @@
         <v>117.6743889408517</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I24" t="n">
-        <v>8.099864593737074</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>207.8845624928813</v>
@@ -2465,7 +2465,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>104.5450484654371</v>
       </c>
     </row>
     <row r="25">
@@ -2478,25 +2478,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>117.9887392752353</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>65.90116144366579</v>
       </c>
       <c r="G25" t="n">
         <v>165.5781910131661</v>
       </c>
       <c r="H25" t="n">
-        <v>145.0922268306807</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>229.1176658249033</v>
@@ -2535,16 +2535,16 @@
         <v>282.5302226215153</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>103.0913044848592</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -2572,7 +2572,7 @@
         <v>406.8166861751919</v>
       </c>
       <c r="H26" t="n">
-        <v>219.5460232734118</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2636,19 +2636,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>26.92174244877839</v>
+        <v>108.5558983059367</v>
       </c>
       <c r="D27" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H27" t="n">
         <v>75.9714710107498</v>
@@ -2699,7 +2699,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>177.5210747552478</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>132.8416110249529</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>34.93261678498607</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H28" t="n">
         <v>145.0922268306807</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T28" t="n">
         <v>229.1176658249033</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>59.7584450065848</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>364.4235171078682</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>51.58147895005203</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.5718775168518</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>135.0820259802211</v>
@@ -2885,13 +2885,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T30" t="n">
         <v>170.4382740666146</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>167.2306774659357</v>
       </c>
       <c r="V30" t="n">
-        <v>184.7848637490997</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
         <v>227.816073408046</v>
@@ -2952,25 +2952,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>17.81894136109181</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>90.62383976704015</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>183.4770235079133</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -3031,10 +3031,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>367.3127748753753</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>19.5151978036372</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.5718775168518</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3113,16 +3113,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>76.43287182102173</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>170.4382740666146</v>
@@ -3176,7 +3176,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.079112023567815</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -3198,7 +3198,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5781910131661</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.99859460918927</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>4.116367603419644</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V34" t="n">
-        <v>35.7177738558386</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>347.6472557445168</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>191.8208754515553</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>306.2077028597703</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>347.6472557445168</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>347.6472557445168</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>28.77309171895309</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8845624928813</v>
+        <v>93.47576363787505</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>80.83732384283527</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>141.7879410960068</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>347.6472557445165</v>
       </c>
       <c r="F38" t="n">
-        <v>347.6472557445165</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>347.6472557445165</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>94.63582534291845</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>211.5718775168518</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>306.2077028597701</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>116.2108021328977</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.482505787846053</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T39" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>207.8845624928813</v>
@@ -3650,7 +3650,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>86.90868469180903</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>282.5302226215153</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>63.8042630888063</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,70 +3742,70 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>347.6472557445165</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>347.6472557445165</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>51.58147895005203</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>114.3868274082149</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>140.2393965015032</v>
+      </c>
+      <c r="X41" t="n">
         <v>347.6472557445165</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>306.2077028597701</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,16 +3821,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>7.482505787846053</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>170.4382740666146</v>
+        <v>69.31627128548706</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8845624928813</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>187.4140068734885</v>
@@ -3903,13 +3903,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8533554923724348</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.62952815393111</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>347.6472557445167</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="G44" t="n">
-        <v>306.2077028597703</v>
+        <v>304.1099116217409</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>51.58147895005203</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -4070,10 +4070,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T45" t="n">
         <v>170.4382740666146</v>
       </c>
       <c r="U45" t="n">
-        <v>86.89039689069639</v>
+        <v>116.9717968531767</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,19 +4137,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>47.18610197590111</v>
+        <v>111.3451075221044</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>77.99859460918924</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>378.9706246459416</v>
+        <v>710.1789616956587</v>
       </c>
       <c r="C11" t="n">
-        <v>27.81178045956132</v>
+        <v>680.1459458908846</v>
       </c>
       <c r="D11" t="n">
-        <v>27.81178045956132</v>
+        <v>680.1459458908846</v>
       </c>
       <c r="E11" t="n">
-        <v>27.81178045956132</v>
+        <v>680.1459458908846</v>
       </c>
       <c r="F11" t="n">
-        <v>27.81178045956132</v>
+        <v>328.9871017045043</v>
       </c>
       <c r="G11" t="n">
-        <v>27.81178045956132</v>
+        <v>328.9871017045043</v>
       </c>
       <c r="H11" t="n">
         <v>27.81178045956132</v>
@@ -5047,19 +5047,19 @@
         <v>234.6178659349241</v>
       </c>
       <c r="L11" t="n">
-        <v>428.8631441503474</v>
+        <v>428.8631441503477</v>
       </c>
       <c r="M11" t="n">
-        <v>665.5835775618959</v>
+        <v>665.5835775618966</v>
       </c>
       <c r="N11" t="n">
-        <v>909.1333705158787</v>
+        <v>909.1333705158793</v>
       </c>
       <c r="O11" t="n">
-        <v>1130.442613932449</v>
+        <v>1130.44261393245</v>
       </c>
       <c r="P11" t="n">
-        <v>1296.899282459866</v>
+        <v>1296.899282459867</v>
       </c>
       <c r="Q11" t="n">
         <v>1390.589022978066</v>
@@ -5068,25 +5068,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S11" t="n">
-        <v>1327.810062903766</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="T11" t="n">
-        <v>1327.810062903766</v>
+        <v>1061.337805882039</v>
       </c>
       <c r="U11" t="n">
-        <v>1072.236278128803</v>
+        <v>1061.337805882039</v>
       </c>
       <c r="V11" t="n">
-        <v>730.1294688323219</v>
+        <v>1061.337805882039</v>
       </c>
       <c r="W11" t="n">
-        <v>378.9706246459416</v>
+        <v>1061.337805882039</v>
       </c>
       <c r="X11" t="n">
-        <v>378.9706246459416</v>
+        <v>1061.337805882039</v>
       </c>
       <c r="Y11" t="n">
-        <v>378.9706246459416</v>
+        <v>1061.337805882039</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.99346186737655</v>
+        <v>765.0351540229607</v>
       </c>
       <c r="C12" t="n">
-        <v>35.99346186737655</v>
+        <v>614.3809235830529</v>
       </c>
       <c r="D12" t="n">
-        <v>35.99346186737655</v>
+        <v>484.2919562045333</v>
       </c>
       <c r="E12" t="n">
-        <v>35.99346186737655</v>
+        <v>347.845465315421</v>
       </c>
       <c r="F12" t="n">
-        <v>35.99346186737655</v>
+        <v>223.4136591985528</v>
       </c>
       <c r="G12" t="n">
-        <v>35.99346186737655</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="H12" t="n">
-        <v>35.99346186737655</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I12" t="n">
         <v>27.81178045956132</v>
@@ -5129,43 +5129,43 @@
         <v>517.9845243159086</v>
       </c>
       <c r="M12" t="n">
-        <v>785.2849284502323</v>
+        <v>723.7282867349788</v>
       </c>
       <c r="N12" t="n">
-        <v>1005.839735246099</v>
+        <v>944.2830935308456</v>
       </c>
       <c r="O12" t="n">
-        <v>1193.161427706152</v>
+        <v>1131.604785990898</v>
       </c>
       <c r="P12" t="n">
-        <v>1330.93710741934</v>
+        <v>1269.380465704087</v>
       </c>
       <c r="Q12" t="n">
-        <v>1390.589022978066</v>
+        <v>1341.202308725335</v>
       </c>
       <c r="R12" t="n">
         <v>1390.589022978066</v>
       </c>
       <c r="S12" t="n">
-        <v>1277.888358601178</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T12" t="n">
-        <v>1105.728485806618</v>
+        <v>1218.429150183506</v>
       </c>
       <c r="U12" t="n">
-        <v>895.7440792481516</v>
+        <v>1008.44474362504</v>
       </c>
       <c r="V12" t="n">
-        <v>673.2040776192187</v>
+        <v>1008.44474362504</v>
       </c>
       <c r="W12" t="n">
-        <v>443.0868317525055</v>
+        <v>778.3274977583267</v>
       </c>
       <c r="X12" t="n">
-        <v>253.7797541025172</v>
+        <v>778.3274977583267</v>
       </c>
       <c r="Y12" t="n">
-        <v>187.7897963083379</v>
+        <v>778.3274977583267</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.34644081741993</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="C13" t="n">
-        <v>60.34644081741993</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="D13" t="n">
-        <v>60.34644081741993</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="E13" t="n">
-        <v>60.34644081741993</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="F13" t="n">
-        <v>60.34644081741993</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G13" t="n">
         <v>27.81178045956132</v>
@@ -5205,46 +5205,46 @@
         <v>263.6506266134209</v>
       </c>
       <c r="L13" t="n">
-        <v>323.0554805955215</v>
+        <v>573.9814096562982</v>
       </c>
       <c r="M13" t="n">
-        <v>663.497774212274</v>
+        <v>914.4237032730507</v>
       </c>
       <c r="N13" t="n">
-        <v>850.0740625999027</v>
+        <v>1248.098693117216</v>
       </c>
       <c r="O13" t="n">
-        <v>1151.776412495519</v>
+        <v>1297.999493477363</v>
       </c>
       <c r="P13" t="n">
-        <v>1390.589022978066</v>
+        <v>1328.307967577705</v>
       </c>
       <c r="Q13" t="n">
         <v>1390.589022978066</v>
       </c>
       <c r="R13" t="n">
-        <v>1311.802563776865</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S13" t="n">
-        <v>1126.472237001195</v>
+        <v>1285.150614864534</v>
       </c>
       <c r="T13" t="n">
-        <v>895.040251319474</v>
+        <v>1053.718629182813</v>
       </c>
       <c r="U13" t="n">
-        <v>609.6561880654181</v>
+        <v>768.3345659287572</v>
       </c>
       <c r="V13" t="n">
-        <v>343.6768428862423</v>
+        <v>768.3345659287572</v>
       </c>
       <c r="W13" t="n">
-        <v>60.34644081741993</v>
+        <v>485.0041638599349</v>
       </c>
       <c r="X13" t="n">
-        <v>60.34644081741993</v>
+        <v>250.923841642918</v>
       </c>
       <c r="Y13" t="n">
-        <v>60.34644081741993</v>
+        <v>27.81178045956132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1390.589022978066</v>
+        <v>378.9706246459417</v>
       </c>
       <c r="C14" t="n">
-        <v>1390.589022978066</v>
+        <v>378.9706246459417</v>
       </c>
       <c r="D14" t="n">
-        <v>1083.407294067217</v>
+        <v>378.9706246459417</v>
       </c>
       <c r="E14" t="n">
-        <v>732.2484498808362</v>
+        <v>378.9706246459417</v>
       </c>
       <c r="F14" t="n">
-        <v>732.2484498808362</v>
+        <v>378.9706246459417</v>
       </c>
       <c r="G14" t="n">
-        <v>381.0896056944559</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H14" t="n">
-        <v>79.91428444951288</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I14" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J14" t="n">
-        <v>97.37723928323635</v>
+        <v>97.37723928323621</v>
       </c>
       <c r="K14" t="n">
-        <v>234.6178659349241</v>
+        <v>234.617865934924</v>
       </c>
       <c r="L14" t="n">
-        <v>428.8631441503476</v>
+        <v>428.8631441503471</v>
       </c>
       <c r="M14" t="n">
-        <v>665.5835775618963</v>
+        <v>665.5835775618959</v>
       </c>
       <c r="N14" t="n">
-        <v>909.1333705158791</v>
+        <v>909.1333705158788</v>
       </c>
       <c r="O14" t="n">
-        <v>1130.44261393245</v>
+        <v>1130.442613932449</v>
       </c>
       <c r="P14" t="n">
         <v>1296.899282459867</v>
@@ -5314,16 +5314,16 @@
         <v>1390.589022978066</v>
       </c>
       <c r="V14" t="n">
-        <v>1390.589022978066</v>
+        <v>1048.482213681585</v>
       </c>
       <c r="W14" t="n">
-        <v>1390.589022978066</v>
+        <v>697.3233694952044</v>
       </c>
       <c r="X14" t="n">
-        <v>1390.589022978066</v>
+        <v>378.9706246459417</v>
       </c>
       <c r="Y14" t="n">
-        <v>1390.589022978066</v>
+        <v>378.9706246459417</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>773.216835430776</v>
+        <v>35.3698671139515</v>
       </c>
       <c r="C15" t="n">
-        <v>622.5626049908682</v>
+        <v>35.3698671139515</v>
       </c>
       <c r="D15" t="n">
-        <v>492.4736376123485</v>
+        <v>35.3698671139515</v>
       </c>
       <c r="E15" t="n">
-        <v>356.0271467232362</v>
+        <v>35.3698671139515</v>
       </c>
       <c r="F15" t="n">
-        <v>231.595340606368</v>
+        <v>35.3698671139515</v>
       </c>
       <c r="G15" t="n">
-        <v>112.7323214741945</v>
+        <v>35.3698671139515</v>
       </c>
       <c r="H15" t="n">
-        <v>35.99346186737655</v>
+        <v>35.3698671139515</v>
       </c>
       <c r="I15" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J15" t="n">
-        <v>57.01289064179397</v>
+        <v>251.7478856215214</v>
       </c>
       <c r="K15" t="n">
-        <v>157.7228750988294</v>
+        <v>352.4578700785568</v>
       </c>
       <c r="L15" t="n">
-        <v>323.2495293361815</v>
+        <v>517.984524315909</v>
       </c>
       <c r="M15" t="n">
-        <v>528.9932917552518</v>
+        <v>723.7282867349793</v>
       </c>
       <c r="N15" t="n">
-        <v>749.5480985511185</v>
+        <v>944.2830935308461</v>
       </c>
       <c r="O15" t="n">
-        <v>936.8697910111712</v>
+        <v>1131.604785990899</v>
       </c>
       <c r="P15" t="n">
-        <v>1074.64547072436</v>
+        <v>1269.380465704088</v>
       </c>
       <c r="Q15" t="n">
-        <v>1341.202308725335</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R15" t="n">
         <v>1390.589022978066</v>
@@ -5387,22 +5387,22 @@
         <v>1390.589022978066</v>
       </c>
       <c r="T15" t="n">
-        <v>1390.589022978066</v>
+        <v>1218.429150183506</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.589022978066</v>
+        <v>1008.44474362504</v>
       </c>
       <c r="V15" t="n">
-        <v>1390.589022978066</v>
+        <v>785.9047419961071</v>
       </c>
       <c r="W15" t="n">
-        <v>1293.634464446218</v>
+        <v>555.787496129394</v>
       </c>
       <c r="X15" t="n">
-        <v>1104.32738679623</v>
+        <v>366.4804184794056</v>
       </c>
       <c r="Y15" t="n">
-        <v>925.0131698717373</v>
+        <v>187.1662015549128</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>982.1466350190399</v>
+        <v>669.1513360531717</v>
       </c>
       <c r="C16" t="n">
-        <v>913.0589201579189</v>
+        <v>498.946218119161</v>
       </c>
       <c r="D16" t="n">
-        <v>757.4258070604337</v>
+        <v>498.946218119161</v>
       </c>
       <c r="E16" t="n">
-        <v>601.8669949196362</v>
+        <v>498.946218119161</v>
       </c>
       <c r="F16" t="n">
-        <v>444.5410601326092</v>
+        <v>341.6202833321339</v>
       </c>
       <c r="G16" t="n">
-        <v>277.2903621395122</v>
+        <v>174.3695853390368</v>
       </c>
       <c r="H16" t="n">
-        <v>130.7325572600367</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I16" t="n">
-        <v>27.81178045956133</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J16" t="n">
-        <v>67.5636489924843</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="K16" t="n">
-        <v>263.650626613421</v>
+        <v>59.04368533781664</v>
       </c>
       <c r="L16" t="n">
-        <v>573.9814096562982</v>
+        <v>369.3744683806939</v>
       </c>
       <c r="M16" t="n">
-        <v>638.7333829645029</v>
+        <v>709.8167619974465</v>
       </c>
       <c r="N16" t="n">
-        <v>764.3064368712626</v>
+        <v>1043.491751841612</v>
       </c>
       <c r="O16" t="n">
-        <v>1066.008786766879</v>
+        <v>1345.194101737228</v>
       </c>
       <c r="P16" t="n">
-        <v>1304.821397249426</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Q16" t="n">
         <v>1390.589022978066</v>
@@ -5463,25 +5463,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S16" t="n">
-        <v>1205.258696202397</v>
+        <v>1205.258696202396</v>
       </c>
       <c r="T16" t="n">
-        <v>1205.258696202397</v>
+        <v>1205.258696202396</v>
       </c>
       <c r="U16" t="n">
-        <v>1205.258696202397</v>
+        <v>919.8746329483401</v>
       </c>
       <c r="V16" t="n">
-        <v>1205.258696202397</v>
+        <v>919.8746329483401</v>
       </c>
       <c r="W16" t="n">
-        <v>1205.258696202397</v>
+        <v>669.1513360531717</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.258696202397</v>
+        <v>669.1513360531717</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1466350190399</v>
+        <v>669.1513360531717</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.81178045956132</v>
+        <v>378.9706246459417</v>
       </c>
       <c r="C17" t="n">
         <v>27.81178045956132</v>
@@ -5521,19 +5521,19 @@
         <v>234.6178659349239</v>
       </c>
       <c r="L17" t="n">
-        <v>428.8631441503471</v>
+        <v>428.8631441503473</v>
       </c>
       <c r="M17" t="n">
         <v>665.5835775618962</v>
       </c>
       <c r="N17" t="n">
-        <v>909.1333705158788</v>
+        <v>909.1333705158791</v>
       </c>
       <c r="O17" t="n">
-        <v>1130.442613932449</v>
+        <v>1130.44261393245</v>
       </c>
       <c r="P17" t="n">
-        <v>1296.899282459866</v>
+        <v>1296.899282459867</v>
       </c>
       <c r="Q17" t="n">
         <v>1390.589022978066</v>
@@ -5551,16 +5551,16 @@
         <v>1390.589022978066</v>
       </c>
       <c r="V17" t="n">
-        <v>1048.482213681584</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="W17" t="n">
-        <v>1048.482213681584</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="X17" t="n">
-        <v>697.3233694952039</v>
+        <v>1039.430178791686</v>
       </c>
       <c r="Y17" t="n">
-        <v>346.1645253088236</v>
+        <v>688.2713346053056</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>164.2582713486736</v>
+        <v>240.9971309554916</v>
       </c>
       <c r="C18" t="n">
-        <v>164.2582713486736</v>
+        <v>240.9971309554916</v>
       </c>
       <c r="D18" t="n">
-        <v>164.2582713486736</v>
+        <v>240.9971309554916</v>
       </c>
       <c r="E18" t="n">
-        <v>27.81178045956132</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="F18" t="n">
-        <v>27.81178045956132</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="G18" t="n">
-        <v>27.81178045956132</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="H18" t="n">
         <v>27.81178045956132</v>
@@ -5594,22 +5594,22 @@
         <v>27.81178045956132</v>
       </c>
       <c r="J18" t="n">
-        <v>57.01289064179397</v>
+        <v>125.4907923160424</v>
       </c>
       <c r="K18" t="n">
-        <v>364.6277975410784</v>
+        <v>226.2007767730778</v>
       </c>
       <c r="L18" t="n">
-        <v>530.1544517784305</v>
+        <v>391.7274310104299</v>
       </c>
       <c r="M18" t="n">
-        <v>735.8982141975008</v>
+        <v>735.8982141975013</v>
       </c>
       <c r="N18" t="n">
-        <v>956.4530209933675</v>
+        <v>956.453020993368</v>
       </c>
       <c r="O18" t="n">
-        <v>1143.77471345342</v>
+        <v>1143.774713453421</v>
       </c>
       <c r="P18" t="n">
         <v>1281.550393166609</v>
@@ -5621,25 +5621,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S18" t="n">
-        <v>1277.888358601178</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T18" t="n">
-        <v>1105.728485806618</v>
+        <v>1218.429150183506</v>
       </c>
       <c r="U18" t="n">
-        <v>895.7440792481516</v>
+        <v>1008.44474362504</v>
       </c>
       <c r="V18" t="n">
-        <v>673.2040776192187</v>
+        <v>785.9047419961071</v>
       </c>
       <c r="W18" t="n">
-        <v>532.8795659231547</v>
+        <v>555.787496129394</v>
       </c>
       <c r="X18" t="n">
-        <v>343.5724882731664</v>
+        <v>366.4804184794056</v>
       </c>
       <c r="Y18" t="n">
-        <v>164.2582713486736</v>
+        <v>240.9971309554916</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>468.6872690778631</v>
+        <v>758.6874053118057</v>
       </c>
       <c r="C19" t="n">
-        <v>298.4821511438523</v>
+        <v>588.4822873777949</v>
       </c>
       <c r="D19" t="n">
-        <v>142.8490380463671</v>
+        <v>432.8491742803097</v>
       </c>
       <c r="E19" t="n">
-        <v>27.81178045956132</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="F19" t="n">
-        <v>27.81178045956132</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="G19" t="n">
-        <v>27.81178045956132</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="H19" t="n">
-        <v>27.81178045956132</v>
+        <v>130.7325572600367</v>
       </c>
       <c r="I19" t="n">
         <v>27.81178045956132</v>
@@ -5676,19 +5676,19 @@
         <v>27.81178045956132</v>
       </c>
       <c r="K19" t="n">
-        <v>223.898758080498</v>
+        <v>59.04368533781661</v>
       </c>
       <c r="L19" t="n">
-        <v>451.6470994475328</v>
+        <v>369.3744683806939</v>
       </c>
       <c r="M19" t="n">
-        <v>516.3990727557375</v>
+        <v>709.8167619974464</v>
       </c>
       <c r="N19" t="n">
-        <v>850.0740625999026</v>
+        <v>1043.491751841611</v>
       </c>
       <c r="O19" t="n">
-        <v>1151.776412495519</v>
+        <v>1345.194101737228</v>
       </c>
       <c r="P19" t="n">
         <v>1390.589022978066</v>
@@ -5700,25 +5700,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S19" t="n">
-        <v>1205.258696202396</v>
+        <v>1227.225826071929</v>
       </c>
       <c r="T19" t="n">
-        <v>1205.258696202396</v>
+        <v>1227.225826071929</v>
       </c>
       <c r="U19" t="n">
-        <v>919.8746329483401</v>
+        <v>1227.225826071929</v>
       </c>
       <c r="V19" t="n">
-        <v>653.8952877691644</v>
+        <v>1227.225826071929</v>
       </c>
       <c r="W19" t="n">
-        <v>653.8952877691644</v>
+        <v>943.895424003107</v>
       </c>
       <c r="X19" t="n">
-        <v>653.8952877691644</v>
+        <v>943.895424003107</v>
       </c>
       <c r="Y19" t="n">
-        <v>653.8952877691644</v>
+        <v>943.895424003107</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27.81178045956132</v>
+        <v>572.7290846980177</v>
       </c>
       <c r="C20" t="n">
-        <v>27.81178045956132</v>
+        <v>572.7290846980177</v>
       </c>
       <c r="D20" t="n">
-        <v>27.81178045956132</v>
+        <v>378.9706246459416</v>
       </c>
       <c r="E20" t="n">
         <v>27.81178045956132</v>
@@ -5752,16 +5752,16 @@
         <v>27.81178045956132</v>
       </c>
       <c r="J20" t="n">
-        <v>97.37723928323595</v>
+        <v>97.37723928323612</v>
       </c>
       <c r="K20" t="n">
-        <v>234.6178659349237</v>
+        <v>234.6178659349239</v>
       </c>
       <c r="L20" t="n">
-        <v>428.8631441503471</v>
+        <v>428.8631441503473</v>
       </c>
       <c r="M20" t="n">
-        <v>665.583577561896</v>
+        <v>665.5835775618962</v>
       </c>
       <c r="N20" t="n">
         <v>909.1333705158788</v>
@@ -5779,25 +5779,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S20" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="T20" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="U20" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="V20" t="n">
-        <v>1048.482213681584</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="W20" t="n">
-        <v>730.1294688323219</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="X20" t="n">
-        <v>730.1294688323219</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="Y20" t="n">
-        <v>378.9706246459416</v>
+        <v>923.887928884398</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>506.9899453654234</v>
+        <v>379.6366766231553</v>
       </c>
       <c r="C21" t="n">
-        <v>356.3357149255156</v>
+        <v>228.9824461832475</v>
       </c>
       <c r="D21" t="n">
-        <v>226.2467475469959</v>
+        <v>228.9824461832475</v>
       </c>
       <c r="E21" t="n">
-        <v>89.80025665788361</v>
+        <v>228.9824461832475</v>
       </c>
       <c r="F21" t="n">
-        <v>89.80025665788361</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="G21" t="n">
-        <v>27.81178045956132</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="H21" t="n">
         <v>27.81178045956132</v>
@@ -5831,28 +5831,28 @@
         <v>27.81178045956132</v>
       </c>
       <c r="J21" t="n">
-        <v>57.01289064179397</v>
+        <v>251.7478856215213</v>
       </c>
       <c r="K21" t="n">
-        <v>157.7228750988294</v>
+        <v>352.4578700785568</v>
       </c>
       <c r="L21" t="n">
-        <v>501.8936582859007</v>
+        <v>517.9845243159089</v>
       </c>
       <c r="M21" t="n">
-        <v>707.637420704971</v>
+        <v>723.7282867349792</v>
       </c>
       <c r="N21" t="n">
-        <v>928.1922275008377</v>
+        <v>944.2830935308459</v>
       </c>
       <c r="O21" t="n">
-        <v>1115.51391996089</v>
+        <v>1131.604785990899</v>
       </c>
       <c r="P21" t="n">
-        <v>1330.93710741934</v>
+        <v>1269.380465704087</v>
       </c>
       <c r="Q21" t="n">
-        <v>1390.589022978066</v>
+        <v>1341.202308725335</v>
       </c>
       <c r="R21" t="n">
         <v>1390.589022978066</v>
@@ -5861,22 +5861,22 @@
         <v>1277.888358601178</v>
       </c>
       <c r="T21" t="n">
-        <v>1105.728485806618</v>
+        <v>1130.171551505311</v>
       </c>
       <c r="U21" t="n">
-        <v>1105.728485806618</v>
+        <v>1130.171551505311</v>
       </c>
       <c r="V21" t="n">
-        <v>1105.728485806618</v>
+        <v>1130.171551505311</v>
       </c>
       <c r="W21" t="n">
-        <v>875.6112399399044</v>
+        <v>900.0543056385977</v>
       </c>
       <c r="X21" t="n">
-        <v>686.3041622899161</v>
+        <v>710.7472279886094</v>
       </c>
       <c r="Y21" t="n">
-        <v>506.9899453654234</v>
+        <v>531.4330110641166</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.8582941107212</v>
+        <v>370.6871937847106</v>
       </c>
       <c r="C22" t="n">
-        <v>392.6531761767104</v>
+        <v>200.4820758506999</v>
       </c>
       <c r="D22" t="n">
-        <v>392.6531761767104</v>
+        <v>200.4820758506999</v>
       </c>
       <c r="E22" t="n">
-        <v>237.0943640359129</v>
+        <v>44.92326370990236</v>
       </c>
       <c r="F22" t="n">
-        <v>79.76842924888587</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G22" t="n">
-        <v>79.76842924888587</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H22" t="n">
-        <v>79.76842924888587</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I22" t="n">
         <v>27.81178045956132</v>
@@ -5937,25 +5937,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S22" t="n">
-        <v>1205.258696202396</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T22" t="n">
-        <v>1205.258696202396</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U22" t="n">
-        <v>1205.258696202396</v>
+        <v>1105.20495972401</v>
       </c>
       <c r="V22" t="n">
-        <v>1205.258696202396</v>
+        <v>839.2256145448342</v>
       </c>
       <c r="W22" t="n">
-        <v>1205.258696202396</v>
+        <v>555.8952124760119</v>
       </c>
       <c r="X22" t="n">
-        <v>971.1783739853792</v>
+        <v>555.8952124760119</v>
       </c>
       <c r="Y22" t="n">
-        <v>748.0663128020225</v>
+        <v>555.8952124760119</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>957.322779408507</v>
+        <v>381.2013954694434</v>
       </c>
       <c r="C23" t="n">
-        <v>957.322779408507</v>
+        <v>381.2013954694434</v>
       </c>
       <c r="D23" t="n">
-        <v>957.322779408507</v>
+        <v>381.2013954694434</v>
       </c>
       <c r="E23" t="n">
-        <v>957.322779408507</v>
+        <v>381.2013954694434</v>
       </c>
       <c r="F23" t="n">
-        <v>540.4283409384848</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="G23" t="n">
-        <v>129.5023953069777</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="H23" t="n">
         <v>37.68509181151956</v>
@@ -6010,31 +6010,31 @@
         <v>1567.925406283576</v>
       </c>
       <c r="Q23" t="n">
-        <v>1783.77954602446</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="R23" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="S23" t="n">
-        <v>1768.71234066869</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="T23" t="n">
-        <v>1555.003373479951</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="U23" t="n">
-        <v>1299.429588704989</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="V23" t="n">
-        <v>957.322779408507</v>
+        <v>1542.147781279496</v>
       </c>
       <c r="W23" t="n">
-        <v>957.322779408507</v>
+        <v>1171.148746247783</v>
       </c>
       <c r="X23" t="n">
-        <v>957.322779408507</v>
+        <v>781.6961411808403</v>
       </c>
       <c r="Y23" t="n">
-        <v>957.322779408507</v>
+        <v>781.6961411808403</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>529.0354347118632</v>
+        <v>774.908465374919</v>
       </c>
       <c r="C24" t="n">
-        <v>378.3812042719554</v>
+        <v>624.2542349350113</v>
       </c>
       <c r="D24" t="n">
-        <v>378.3812042719554</v>
+        <v>494.1652675564915</v>
       </c>
       <c r="E24" t="n">
-        <v>289.1615984683765</v>
+        <v>357.7187766673792</v>
       </c>
       <c r="F24" t="n">
-        <v>164.7297923515083</v>
+        <v>233.286970550511</v>
       </c>
       <c r="G24" t="n">
-        <v>45.86677321933478</v>
+        <v>114.4239514183375</v>
       </c>
       <c r="H24" t="n">
-        <v>45.86677321933478</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="I24" t="n">
         <v>37.68509181151956</v>
       </c>
       <c r="J24" t="n">
-        <v>261.6211969734796</v>
+        <v>162.2957495166654</v>
       </c>
       <c r="K24" t="n">
-        <v>362.331181430515</v>
+        <v>628.6487606842198</v>
       </c>
       <c r="L24" t="n">
-        <v>527.8578356678671</v>
+        <v>794.1754149215719</v>
       </c>
       <c r="M24" t="n">
-        <v>733.6015980869374</v>
+        <v>999.9191773406422</v>
       </c>
       <c r="N24" t="n">
-        <v>954.1564048828042</v>
+        <v>1220.473984136509</v>
       </c>
       <c r="O24" t="n">
-        <v>1141.478097342857</v>
+        <v>1686.826995304064</v>
       </c>
       <c r="P24" t="n">
-        <v>1450.772597585275</v>
+        <v>1824.602675017252</v>
       </c>
       <c r="Q24" t="n">
-        <v>1834.867876323246</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="R24" t="n">
         <v>1884.254590575978</v>
@@ -6098,22 +6098,22 @@
         <v>1884.254590575978</v>
       </c>
       <c r="T24" t="n">
-        <v>1712.094717781418</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="U24" t="n">
-        <v>1502.110311222952</v>
+        <v>1674.270184017512</v>
       </c>
       <c r="V24" t="n">
-        <v>1279.570309594019</v>
+        <v>1451.730182388579</v>
       </c>
       <c r="W24" t="n">
-        <v>1049.453063727306</v>
+        <v>1221.612936521866</v>
       </c>
       <c r="X24" t="n">
-        <v>860.1459860773173</v>
+        <v>1032.305858871877</v>
       </c>
       <c r="Y24" t="n">
-        <v>680.8317691528246</v>
+        <v>926.7047998158804</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>730.9208509940544</v>
+        <v>441.707737479704</v>
       </c>
       <c r="C25" t="n">
-        <v>730.9208509940544</v>
+        <v>271.5026195456932</v>
       </c>
       <c r="D25" t="n">
-        <v>730.9208509940544</v>
+        <v>271.5026195456932</v>
       </c>
       <c r="E25" t="n">
-        <v>611.7403062715945</v>
+        <v>271.5026195456932</v>
       </c>
       <c r="F25" t="n">
-        <v>454.4143714845674</v>
+        <v>204.9357898046166</v>
       </c>
       <c r="G25" t="n">
-        <v>287.1636734914704</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="H25" t="n">
-        <v>140.6058686119949</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="I25" t="n">
         <v>37.68509181151956</v>
       </c>
       <c r="J25" t="n">
-        <v>77.43696034444253</v>
+        <v>77.4369603444425</v>
       </c>
       <c r="K25" t="n">
         <v>273.5239379653792</v>
       </c>
       <c r="L25" t="n">
-        <v>583.8547210082565</v>
+        <v>583.8547210082563</v>
       </c>
       <c r="M25" t="n">
-        <v>924.2970146250088</v>
+        <v>924.297014625009</v>
       </c>
       <c r="N25" t="n">
         <v>1257.972004469174</v>
@@ -6174,25 +6174,25 @@
         <v>1884.254590575978</v>
       </c>
       <c r="S25" t="n">
-        <v>1698.924263800308</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="T25" t="n">
-        <v>1467.492278118587</v>
+        <v>1652.822604894257</v>
       </c>
       <c r="U25" t="n">
-        <v>1182.108214864531</v>
+        <v>1367.438541640201</v>
       </c>
       <c r="V25" t="n">
-        <v>916.1288696853557</v>
+        <v>1367.438541640201</v>
       </c>
       <c r="W25" t="n">
-        <v>916.1288696853557</v>
+        <v>1084.108139571379</v>
       </c>
       <c r="X25" t="n">
-        <v>916.1288696853557</v>
+        <v>850.0278173543619</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.1288696853557</v>
+        <v>626.9157561710052</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1087.269135785182</v>
+        <v>1268.089000796504</v>
       </c>
       <c r="C26" t="n">
-        <v>1087.269135785182</v>
+        <v>1268.089000796504</v>
       </c>
       <c r="D26" t="n">
-        <v>1087.269135785182</v>
+        <v>1268.089000796504</v>
       </c>
       <c r="E26" t="n">
-        <v>1087.269135785182</v>
+        <v>865.5054759130488</v>
       </c>
       <c r="F26" t="n">
-        <v>670.3746973151598</v>
+        <v>448.6110374430266</v>
       </c>
       <c r="G26" t="n">
-        <v>259.4487516836527</v>
+        <v>37.68509181151956</v>
       </c>
       <c r="H26" t="n">
         <v>37.68509181151956</v>
@@ -6229,22 +6229,22 @@
         <v>368.4033631069451</v>
       </c>
       <c r="K26" t="n">
-        <v>627.8083889813176</v>
+        <v>505.6439897586329</v>
       </c>
       <c r="L26" t="n">
-        <v>822.053667196741</v>
+        <v>699.8892679740562</v>
       </c>
       <c r="M26" t="n">
-        <v>1058.77410060829</v>
+        <v>936.6097013856051</v>
       </c>
       <c r="N26" t="n">
-        <v>1302.323893562273</v>
+        <v>1180.159494339588</v>
       </c>
       <c r="O26" t="n">
-        <v>1523.633136978843</v>
+        <v>1401.468737756159</v>
       </c>
       <c r="P26" t="n">
-        <v>1690.089805506261</v>
+        <v>1567.925406283576</v>
       </c>
       <c r="Q26" t="n">
         <v>1783.77954602446</v>
@@ -6253,25 +6253,25 @@
         <v>1884.254590575978</v>
       </c>
       <c r="S26" t="n">
-        <v>1884.254590575978</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="T26" t="n">
-        <v>1884.254590575978</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="U26" t="n">
-        <v>1884.254590575978</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="V26" t="n">
-        <v>1884.254590575978</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="W26" t="n">
-        <v>1884.254590575978</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="X26" t="n">
-        <v>1884.254590575978</v>
+        <v>1768.71234066869</v>
       </c>
       <c r="Y26" t="n">
-        <v>1487.763881496579</v>
+        <v>1372.221631589291</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>416.334770334975</v>
+        <v>605.6418479849633</v>
       </c>
       <c r="C27" t="n">
-        <v>389.1410910937847</v>
+        <v>495.9894254537141</v>
       </c>
       <c r="D27" t="n">
-        <v>259.0521237152651</v>
+        <v>365.9004580751945</v>
       </c>
       <c r="E27" t="n">
-        <v>122.6056328261528</v>
+        <v>365.9004580751945</v>
       </c>
       <c r="F27" t="n">
-        <v>122.6056328261528</v>
+        <v>241.4686519583263</v>
       </c>
       <c r="G27" t="n">
         <v>122.6056328261528</v>
@@ -6305,28 +6305,28 @@
         <v>37.68509181151956</v>
       </c>
       <c r="J27" t="n">
-        <v>261.6211969734796</v>
+        <v>66.88620199375219</v>
       </c>
       <c r="K27" t="n">
-        <v>362.331181430515</v>
+        <v>533.2392131613067</v>
       </c>
       <c r="L27" t="n">
-        <v>527.8578356678671</v>
+        <v>698.7658673986588</v>
       </c>
       <c r="M27" t="n">
-        <v>733.6015980869374</v>
+        <v>904.5096298177291</v>
       </c>
       <c r="N27" t="n">
-        <v>954.1564048828042</v>
+        <v>1125.064436613596</v>
       </c>
       <c r="O27" t="n">
-        <v>1141.478097342857</v>
+        <v>1312.386129073649</v>
       </c>
       <c r="P27" t="n">
-        <v>1450.772597585275</v>
+        <v>1500.159311838007</v>
       </c>
       <c r="Q27" t="n">
-        <v>1834.867876323246</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="R27" t="n">
         <v>1884.254590575978</v>
@@ -6347,10 +6347,10 @@
         <v>936.7523993504174</v>
       </c>
       <c r="X27" t="n">
-        <v>747.4453217004291</v>
+        <v>936.7523993504174</v>
       </c>
       <c r="Y27" t="n">
-        <v>568.1311047759364</v>
+        <v>757.4381824259247</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>961.1721229507768</v>
+        <v>916.1288696853557</v>
       </c>
       <c r="C28" t="n">
-        <v>790.9670050167661</v>
+        <v>745.9237517513449</v>
       </c>
       <c r="D28" t="n">
-        <v>635.3338919192809</v>
+        <v>745.9237517513449</v>
       </c>
       <c r="E28" t="n">
-        <v>479.7750797784834</v>
+        <v>611.7403062715945</v>
       </c>
       <c r="F28" t="n">
-        <v>322.4491449914563</v>
+        <v>454.4143714845674</v>
       </c>
       <c r="G28" t="n">
         <v>287.1636734914704</v>
@@ -6384,22 +6384,22 @@
         <v>37.68509181151956</v>
       </c>
       <c r="J28" t="n">
-        <v>77.43696034444233</v>
+        <v>77.43696034444253</v>
       </c>
       <c r="K28" t="n">
-        <v>273.523937965379</v>
+        <v>273.5239379653792</v>
       </c>
       <c r="L28" t="n">
-        <v>583.8547210082562</v>
+        <v>583.8547210082565</v>
       </c>
       <c r="M28" t="n">
-        <v>924.2970146250087</v>
+        <v>924.2970146250088</v>
       </c>
       <c r="N28" t="n">
         <v>1257.972004469174</v>
       </c>
       <c r="O28" t="n">
-        <v>1559.674354364791</v>
+        <v>1559.67435436479</v>
       </c>
       <c r="P28" t="n">
         <v>1798.486964847337</v>
@@ -6411,25 +6411,25 @@
         <v>1884.254590575978</v>
       </c>
       <c r="S28" t="n">
-        <v>1884.254590575978</v>
+        <v>1698.924263800308</v>
       </c>
       <c r="T28" t="n">
-        <v>1652.822604894257</v>
+        <v>1467.492278118587</v>
       </c>
       <c r="U28" t="n">
-        <v>1652.822604894257</v>
+        <v>1182.108214864531</v>
       </c>
       <c r="V28" t="n">
-        <v>1652.822604894257</v>
+        <v>916.1288696853557</v>
       </c>
       <c r="W28" t="n">
-        <v>1369.492202825435</v>
+        <v>916.1288696853557</v>
       </c>
       <c r="X28" t="n">
-        <v>1369.492202825435</v>
+        <v>916.1288696853557</v>
       </c>
       <c r="Y28" t="n">
-        <v>1146.380141642078</v>
+        <v>916.1288696853557</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>500.630682358192</v>
+        <v>1670.545623387239</v>
       </c>
       <c r="C29" t="n">
-        <v>500.630682358192</v>
+        <v>1277.370121890169</v>
       </c>
       <c r="D29" t="n">
-        <v>500.630682358192</v>
+        <v>1277.370121890169</v>
       </c>
       <c r="E29" t="n">
-        <v>98.04715747473654</v>
+        <v>874.7865970067137</v>
       </c>
       <c r="F29" t="n">
-        <v>37.68509181151956</v>
+        <v>457.8921585366915</v>
       </c>
       <c r="G29" t="n">
-        <v>37.68509181151956</v>
+        <v>89.7875958014711</v>
       </c>
       <c r="H29" t="n">
-        <v>37.68509181151956</v>
+        <v>89.7875958014711</v>
       </c>
       <c r="I29" t="n">
         <v>37.68509181151956</v>
@@ -6466,25 +6466,25 @@
         <v>368.4033631069451</v>
       </c>
       <c r="K29" t="n">
-        <v>728.2834335328355</v>
+        <v>627.8083889813176</v>
       </c>
       <c r="L29" t="n">
-        <v>922.5287117482588</v>
+        <v>822.053667196741</v>
       </c>
       <c r="M29" t="n">
-        <v>1159.249145159808</v>
+        <v>1058.77410060829</v>
       </c>
       <c r="N29" t="n">
-        <v>1402.798938113791</v>
+        <v>1302.323893562273</v>
       </c>
       <c r="O29" t="n">
-        <v>1624.108181530361</v>
+        <v>1523.633136978843</v>
       </c>
       <c r="P29" t="n">
-        <v>1790.564850057778</v>
+        <v>1690.089805506261</v>
       </c>
       <c r="Q29" t="n">
-        <v>1884.254590575978</v>
+        <v>1783.77954602446</v>
       </c>
       <c r="R29" t="n">
         <v>1884.254590575978</v>
@@ -6493,22 +6493,22 @@
         <v>1884.254590575978</v>
       </c>
       <c r="T29" t="n">
-        <v>1884.254590575978</v>
+        <v>1670.545623387239</v>
       </c>
       <c r="U29" t="n">
-        <v>1628.680805801016</v>
+        <v>1670.545623387239</v>
       </c>
       <c r="V29" t="n">
-        <v>1286.573996504534</v>
+        <v>1670.545623387239</v>
       </c>
       <c r="W29" t="n">
-        <v>1286.573996504534</v>
+        <v>1670.545623387239</v>
       </c>
       <c r="X29" t="n">
-        <v>897.1213914375909</v>
+        <v>1670.545623387239</v>
       </c>
       <c r="Y29" t="n">
-        <v>500.630682358192</v>
+        <v>1670.545623387239</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>774.908465374919</v>
+        <v>457.3993006652231</v>
       </c>
       <c r="C30" t="n">
-        <v>624.2542349350113</v>
+        <v>306.7450702253153</v>
       </c>
       <c r="D30" t="n">
-        <v>494.1652675564915</v>
+        <v>306.7450702253153</v>
       </c>
       <c r="E30" t="n">
-        <v>357.7187766673792</v>
+        <v>170.298579336203</v>
       </c>
       <c r="F30" t="n">
-        <v>233.286970550511</v>
+        <v>45.86677321933478</v>
       </c>
       <c r="G30" t="n">
-        <v>114.4239514183375</v>
+        <v>45.86677321933478</v>
       </c>
       <c r="H30" t="n">
-        <v>37.68509181151956</v>
+        <v>45.86677321933478</v>
       </c>
       <c r="I30" t="n">
         <v>37.68509181151956</v>
       </c>
       <c r="J30" t="n">
-        <v>261.6211969734796</v>
+        <v>66.88620199375219</v>
       </c>
       <c r="K30" t="n">
-        <v>362.331181430515</v>
+        <v>533.2392131613067</v>
       </c>
       <c r="L30" t="n">
-        <v>527.8578356678671</v>
+        <v>698.7658673986588</v>
       </c>
       <c r="M30" t="n">
-        <v>954.5071328688988</v>
+        <v>904.5096298177291</v>
       </c>
       <c r="N30" t="n">
-        <v>1175.061939664766</v>
+        <v>1125.064436613596</v>
       </c>
       <c r="O30" t="n">
-        <v>1362.383632124818</v>
+        <v>1312.386129073649</v>
       </c>
       <c r="P30" t="n">
-        <v>1500.159311838007</v>
+        <v>1450.772597585275</v>
       </c>
       <c r="Q30" t="n">
-        <v>1884.254590575978</v>
+        <v>1834.867876323246</v>
       </c>
       <c r="R30" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="S30" t="n">
-        <v>1884.254590575978</v>
+        <v>1771.55392619909</v>
       </c>
       <c r="T30" t="n">
-        <v>1712.094717781418</v>
+        <v>1599.394053404529</v>
       </c>
       <c r="U30" t="n">
-        <v>1712.094717781418</v>
+        <v>1430.474177176312</v>
       </c>
       <c r="V30" t="n">
-        <v>1525.443340257075</v>
+        <v>1207.934175547379</v>
       </c>
       <c r="W30" t="n">
-        <v>1295.326094390362</v>
+        <v>977.8169296806655</v>
       </c>
       <c r="X30" t="n">
-        <v>1106.019016740373</v>
+        <v>788.5098520306772</v>
       </c>
       <c r="Y30" t="n">
-        <v>926.7047998158804</v>
+        <v>609.1956351061845</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>694.4070004386097</v>
+        <v>275.7821287789144</v>
       </c>
       <c r="C31" t="n">
-        <v>524.2018825045989</v>
+        <v>275.7821287789144</v>
       </c>
       <c r="D31" t="n">
-        <v>368.5687694071136</v>
+        <v>275.7821287789144</v>
       </c>
       <c r="E31" t="n">
-        <v>213.0099572663161</v>
+        <v>275.7821287789144</v>
       </c>
       <c r="F31" t="n">
-        <v>55.68402247928907</v>
+        <v>275.7821287789144</v>
       </c>
       <c r="G31" t="n">
-        <v>55.68402247928907</v>
+        <v>275.7821287789144</v>
       </c>
       <c r="H31" t="n">
-        <v>37.68509181151956</v>
+        <v>129.2243238994389</v>
       </c>
       <c r="I31" t="n">
         <v>37.68509181151956</v>
       </c>
       <c r="J31" t="n">
-        <v>77.43696034444258</v>
+        <v>77.4369603444425</v>
       </c>
       <c r="K31" t="n">
         <v>273.5239379653792</v>
       </c>
       <c r="L31" t="n">
-        <v>583.8547210082564</v>
+        <v>583.8547210082563</v>
       </c>
       <c r="M31" t="n">
         <v>924.297014625009</v>
@@ -6636,37 +6636,37 @@
         <v>1257.972004469174</v>
       </c>
       <c r="O31" t="n">
-        <v>1559.674354364791</v>
+        <v>1559.67435436479</v>
       </c>
       <c r="P31" t="n">
-        <v>1798.486964847338</v>
+        <v>1798.486964847337</v>
       </c>
       <c r="Q31" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="R31" t="n">
-        <v>1805.468131374777</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="S31" t="n">
-        <v>1620.137804599107</v>
+        <v>1698.924263800308</v>
       </c>
       <c r="T31" t="n">
-        <v>1620.137804599107</v>
+        <v>1467.492278118587</v>
       </c>
       <c r="U31" t="n">
-        <v>1620.137804599107</v>
+        <v>1467.492278118587</v>
       </c>
       <c r="V31" t="n">
-        <v>1620.137804599107</v>
+        <v>1201.512932939412</v>
       </c>
       <c r="W31" t="n">
-        <v>1336.807402530284</v>
+        <v>918.1825308705893</v>
       </c>
       <c r="X31" t="n">
-        <v>1102.727080313268</v>
+        <v>684.1022086535723</v>
       </c>
       <c r="Y31" t="n">
-        <v>879.6150191299109</v>
+        <v>460.9901474702157</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1250.338556662067</v>
+        <v>1228.186060089619</v>
       </c>
       <c r="C32" t="n">
-        <v>857.1630551649973</v>
+        <v>1228.186060089619</v>
       </c>
       <c r="D32" t="n">
         <v>857.1630551649973</v>
@@ -6718,7 +6718,7 @@
         <v>1401.468737756159</v>
       </c>
       <c r="P32" t="n">
-        <v>1567.925406283576</v>
+        <v>1690.089805506261</v>
       </c>
       <c r="Q32" t="n">
         <v>1783.77954602446</v>
@@ -6727,25 +6727,25 @@
         <v>1884.254590575978</v>
       </c>
       <c r="S32" t="n">
-        <v>1864.542269562203</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="T32" t="n">
-        <v>1650.833302373464</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="U32" t="n">
-        <v>1650.833302373464</v>
+        <v>1628.680805801016</v>
       </c>
       <c r="V32" t="n">
-        <v>1650.833302373464</v>
+        <v>1628.680805801016</v>
       </c>
       <c r="W32" t="n">
-        <v>1650.833302373464</v>
+        <v>1628.680805801016</v>
       </c>
       <c r="X32" t="n">
-        <v>1650.833302373464</v>
+        <v>1628.680805801016</v>
       </c>
       <c r="Y32" t="n">
-        <v>1650.833302373464</v>
+        <v>1628.680805801016</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>587.4882680437427</v>
+        <v>529.0354347118634</v>
       </c>
       <c r="C33" t="n">
-        <v>436.8340376038349</v>
+        <v>378.3812042719557</v>
       </c>
       <c r="D33" t="n">
-        <v>306.7450702253153</v>
+        <v>378.3812042719557</v>
       </c>
       <c r="E33" t="n">
-        <v>170.298579336203</v>
+        <v>241.9347133828434</v>
       </c>
       <c r="F33" t="n">
-        <v>45.86677321933478</v>
+        <v>164.7297923515083</v>
       </c>
       <c r="G33" t="n">
-        <v>45.86677321933478</v>
+        <v>45.86677321933479</v>
       </c>
       <c r="H33" t="n">
-        <v>45.86677321933478</v>
+        <v>45.86677321933479</v>
       </c>
       <c r="I33" t="n">
         <v>37.68509181151956</v>
@@ -6782,13 +6782,13 @@
         <v>261.6211969734796</v>
       </c>
       <c r="K33" t="n">
-        <v>533.8500019597449</v>
+        <v>533.8500019597453</v>
       </c>
       <c r="L33" t="n">
-        <v>699.376656197097</v>
+        <v>699.3766561970974</v>
       </c>
       <c r="M33" t="n">
-        <v>905.1204186161673</v>
+        <v>905.1204186161677</v>
       </c>
       <c r="N33" t="n">
         <v>1125.675225412034</v>
@@ -6797,34 +6797,34 @@
         <v>1312.996917872087</v>
       </c>
       <c r="P33" t="n">
-        <v>1450.772597585275</v>
+        <v>1450.772597585276</v>
       </c>
       <c r="Q33" t="n">
-        <v>1834.867876323246</v>
+        <v>1834.867876323247</v>
       </c>
       <c r="R33" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="S33" t="n">
-        <v>1771.55392619909</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="T33" t="n">
-        <v>1599.394053404529</v>
+        <v>1712.094717781418</v>
       </c>
       <c r="U33" t="n">
-        <v>1389.409646846063</v>
+        <v>1502.110311222952</v>
       </c>
       <c r="V33" t="n">
-        <v>1166.86964521713</v>
+        <v>1279.570309594019</v>
       </c>
       <c r="W33" t="n">
-        <v>936.7523993504174</v>
+        <v>1049.453063727306</v>
       </c>
       <c r="X33" t="n">
-        <v>747.4453217004291</v>
+        <v>860.1459860773175</v>
       </c>
       <c r="Y33" t="n">
-        <v>739.284602484704</v>
+        <v>680.8317691528248</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>843.6587677639372</v>
+        <v>686.3328329769101</v>
       </c>
       <c r="C34" t="n">
-        <v>673.4536498299265</v>
+        <v>516.1277150428994</v>
       </c>
       <c r="D34" t="n">
-        <v>517.8205367324412</v>
+        <v>360.4946019454141</v>
       </c>
       <c r="E34" t="n">
-        <v>362.2617245916437</v>
+        <v>204.9357898046166</v>
       </c>
       <c r="F34" t="n">
         <v>204.9357898046166</v>
@@ -6858,52 +6858,52 @@
         <v>37.68509181151956</v>
       </c>
       <c r="J34" t="n">
-        <v>77.43696034444247</v>
+        <v>77.4369603444427</v>
       </c>
       <c r="K34" t="n">
-        <v>273.523937965379</v>
+        <v>273.5239379653794</v>
       </c>
       <c r="L34" t="n">
-        <v>583.8547210082562</v>
+        <v>583.8547210082565</v>
       </c>
       <c r="M34" t="n">
-        <v>924.2970146250087</v>
+        <v>924.2970146250092</v>
       </c>
       <c r="N34" t="n">
         <v>1257.972004469174</v>
       </c>
       <c r="O34" t="n">
-        <v>1559.67435436479</v>
+        <v>1559.674354364791</v>
       </c>
       <c r="P34" t="n">
-        <v>1798.486964847337</v>
+        <v>1798.486964847338</v>
       </c>
       <c r="Q34" t="n">
         <v>1884.254590575978</v>
       </c>
       <c r="R34" t="n">
-        <v>1805.468131374776</v>
+        <v>1884.254590575978</v>
       </c>
       <c r="S34" t="n">
-        <v>1805.468131374776</v>
+        <v>1880.096643501817</v>
       </c>
       <c r="T34" t="n">
-        <v>1805.468131374776</v>
+        <v>1880.096643501817</v>
       </c>
       <c r="U34" t="n">
-        <v>1805.468131374776</v>
+        <v>1594.712580247761</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.389571924434</v>
+        <v>1328.733235068585</v>
       </c>
       <c r="W34" t="n">
-        <v>1486.059169855612</v>
+        <v>1328.733235068585</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.978847638595</v>
+        <v>1094.652912851568</v>
       </c>
       <c r="Y34" t="n">
-        <v>1028.866786455239</v>
+        <v>871.5408516682114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>378.9706246459419</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="C35" t="n">
-        <v>378.9706246459419</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="D35" t="n">
-        <v>378.9706246459419</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="E35" t="n">
-        <v>27.81178045956134</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="F35" t="n">
-        <v>27.81178045956134</v>
+        <v>378.9706246459416</v>
       </c>
       <c r="G35" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H35" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I35" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J35" t="n">
-        <v>97.37723928323615</v>
+        <v>97.37723928323614</v>
       </c>
       <c r="K35" t="n">
         <v>234.6178659349239</v>
@@ -6961,28 +6961,28 @@
         <v>1390.589022978066</v>
       </c>
       <c r="R35" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S35" t="n">
-        <v>1390.589022978067</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="T35" t="n">
-        <v>1390.589022978067</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="U35" t="n">
-        <v>1390.589022978067</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="V35" t="n">
-        <v>1081.288313018703</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="W35" t="n">
-        <v>730.1294688323226</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="X35" t="n">
-        <v>378.9706246459419</v>
+        <v>1081.288313018702</v>
       </c>
       <c r="Y35" t="n">
-        <v>378.9706246459419</v>
+        <v>1081.288313018702</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>178.4660108994691</v>
+        <v>323.0941831963966</v>
       </c>
       <c r="C36" t="n">
-        <v>27.81178045956134</v>
+        <v>172.4399527564888</v>
       </c>
       <c r="D36" t="n">
-        <v>27.81178045956134</v>
+        <v>172.4399527564888</v>
       </c>
       <c r="E36" t="n">
-        <v>27.81178045956134</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="F36" t="n">
-        <v>27.81178045956134</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="G36" t="n">
-        <v>27.81178045956134</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="H36" t="n">
-        <v>27.81178045956134</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="I36" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J36" t="n">
-        <v>57.01289064179399</v>
+        <v>251.7478856215213</v>
       </c>
       <c r="K36" t="n">
-        <v>157.7228750988294</v>
+        <v>352.4578700785568</v>
       </c>
       <c r="L36" t="n">
-        <v>323.2495293361815</v>
+        <v>517.9845243159089</v>
       </c>
       <c r="M36" t="n">
-        <v>528.9932917552518</v>
+        <v>723.7282867349792</v>
       </c>
       <c r="N36" t="n">
-        <v>749.5480985511185</v>
+        <v>944.2830935308459</v>
       </c>
       <c r="O36" t="n">
-        <v>1093.71888173819</v>
+        <v>1131.604785990899</v>
       </c>
       <c r="P36" t="n">
-        <v>1330.937107419341</v>
+        <v>1269.380465704087</v>
       </c>
       <c r="Q36" t="n">
-        <v>1390.589022978067</v>
+        <v>1341.202308725335</v>
       </c>
       <c r="R36" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S36" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T36" t="n">
-        <v>1361.525293969024</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U36" t="n">
-        <v>1151.540887410558</v>
+        <v>1296.169059707485</v>
       </c>
       <c r="V36" t="n">
-        <v>929.0008857816247</v>
+        <v>1073.629058078552</v>
       </c>
       <c r="W36" t="n">
-        <v>698.8836399149116</v>
+        <v>843.511812211839</v>
       </c>
       <c r="X36" t="n">
-        <v>509.5765622649232</v>
+        <v>654.2047345618507</v>
       </c>
       <c r="Y36" t="n">
-        <v>330.2623453404304</v>
+        <v>474.890517637358</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>748.1886208863923</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="C37" t="n">
-        <v>577.9835029523815</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="D37" t="n">
-        <v>422.3503898548963</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="E37" t="n">
-        <v>266.7915777140988</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="F37" t="n">
-        <v>109.4656429270717</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="G37" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H37" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I37" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J37" t="n">
-        <v>27.81178045956134</v>
+        <v>67.5636489924843</v>
       </c>
       <c r="K37" t="n">
-        <v>59.04368533781663</v>
+        <v>98.79555387073958</v>
       </c>
       <c r="L37" t="n">
-        <v>369.3744683806939</v>
+        <v>158.2004078528402</v>
       </c>
       <c r="M37" t="n">
-        <v>709.8167619974464</v>
+        <v>498.6427014695927</v>
       </c>
       <c r="N37" t="n">
-        <v>1043.491751841611</v>
+        <v>832.3176913137578</v>
       </c>
       <c r="O37" t="n">
-        <v>1345.194101737228</v>
+        <v>1134.020041209374</v>
       </c>
       <c r="P37" t="n">
-        <v>1390.589022978067</v>
+        <v>1304.821397249425</v>
       </c>
       <c r="Q37" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R37" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S37" t="n">
-        <v>1390.589022978067</v>
+        <v>1205.258696202396</v>
       </c>
       <c r="T37" t="n">
-        <v>1390.589022978067</v>
+        <v>973.8267105206755</v>
       </c>
       <c r="U37" t="n">
-        <v>1390.589022978067</v>
+        <v>688.4426472666196</v>
       </c>
       <c r="V37" t="n">
-        <v>1390.589022978067</v>
+        <v>545.2225047454006</v>
       </c>
       <c r="W37" t="n">
-        <v>1390.589022978067</v>
+        <v>261.8921026765782</v>
       </c>
       <c r="X37" t="n">
-        <v>1156.50870076105</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="Y37" t="n">
-        <v>933.3966395776936</v>
+        <v>27.81178045956132</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1081.288313018702</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="C38" t="n">
-        <v>1081.288313018702</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="D38" t="n">
-        <v>1081.288313018702</v>
+        <v>730.1294688323219</v>
       </c>
       <c r="E38" t="n">
-        <v>730.1294688323219</v>
+        <v>378.9706246459416</v>
       </c>
       <c r="F38" t="n">
         <v>378.9706246459416</v>
@@ -7174,25 +7174,25 @@
         <v>27.81178045956132</v>
       </c>
       <c r="J38" t="n">
-        <v>97.37723928323614</v>
+        <v>97.37723928323612</v>
       </c>
       <c r="K38" t="n">
         <v>234.6178659349239</v>
       </c>
       <c r="L38" t="n">
-        <v>428.8631441503474</v>
+        <v>428.8631441503473</v>
       </c>
       <c r="M38" t="n">
-        <v>665.5835775618963</v>
+        <v>665.5835775618962</v>
       </c>
       <c r="N38" t="n">
-        <v>909.1333705158791</v>
+        <v>909.1333705158788</v>
       </c>
       <c r="O38" t="n">
-        <v>1130.44261393245</v>
+        <v>1130.442613932449</v>
       </c>
       <c r="P38" t="n">
-        <v>1296.899282459867</v>
+        <v>1296.899282459866</v>
       </c>
       <c r="Q38" t="n">
         <v>1390.589022978066</v>
@@ -7201,22 +7201,22 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S38" t="n">
-        <v>1294.997280207441</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T38" t="n">
-        <v>1081.288313018702</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U38" t="n">
-        <v>1081.288313018702</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="V38" t="n">
-        <v>1081.288313018702</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="W38" t="n">
-        <v>1081.288313018702</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="X38" t="n">
-        <v>1081.288313018702</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="Y38" t="n">
         <v>1081.288313018702</v>
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35.36986711395127</v>
+        <v>425.9396268970774</v>
       </c>
       <c r="C39" t="n">
-        <v>35.36986711395127</v>
+        <v>275.2853964571696</v>
       </c>
       <c r="D39" t="n">
-        <v>35.36986711395127</v>
+        <v>145.1964290786499</v>
       </c>
       <c r="E39" t="n">
-        <v>35.36986711395127</v>
+        <v>145.1964290786499</v>
       </c>
       <c r="F39" t="n">
-        <v>35.36986711395127</v>
+        <v>145.1964290786499</v>
       </c>
       <c r="G39" t="n">
-        <v>35.36986711395127</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H39" t="n">
-        <v>35.36986711395127</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I39" t="n">
         <v>27.81178045956132</v>
@@ -7271,34 +7271,34 @@
         <v>936.8697910111712</v>
       </c>
       <c r="P39" t="n">
-        <v>1074.64547072436</v>
+        <v>1281.040574198242</v>
       </c>
       <c r="Q39" t="n">
-        <v>1390.589022978066</v>
+        <v>1341.202308725335</v>
       </c>
       <c r="R39" t="n">
         <v>1390.589022978066</v>
       </c>
       <c r="S39" t="n">
-        <v>1390.589022978066</v>
+        <v>1277.888358601178</v>
       </c>
       <c r="T39" t="n">
-        <v>1218.429150183506</v>
+        <v>1277.888358601178</v>
       </c>
       <c r="U39" t="n">
-        <v>1008.44474362504</v>
+        <v>1067.903952042712</v>
       </c>
       <c r="V39" t="n">
-        <v>785.9047419961068</v>
+        <v>845.3639504137789</v>
       </c>
       <c r="W39" t="n">
-        <v>555.7874961293937</v>
+        <v>615.2467045470657</v>
       </c>
       <c r="X39" t="n">
-        <v>366.4804184794054</v>
+        <v>425.9396268970774</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.1662015549126</v>
+        <v>425.9396268970774</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>598.7624964718309</v>
+        <v>757.4258070604337</v>
       </c>
       <c r="C40" t="n">
-        <v>428.5573785378201</v>
+        <v>757.4258070604337</v>
       </c>
       <c r="D40" t="n">
-        <v>272.9242654403349</v>
+        <v>757.4258070604337</v>
       </c>
       <c r="E40" t="n">
-        <v>272.9242654403349</v>
+        <v>601.8669949196362</v>
       </c>
       <c r="F40" t="n">
-        <v>115.5983306533078</v>
+        <v>444.5410601326092</v>
       </c>
       <c r="G40" t="n">
-        <v>27.81178045956132</v>
+        <v>277.2903621395122</v>
       </c>
       <c r="H40" t="n">
-        <v>27.81178045956132</v>
+        <v>130.7325572600367</v>
       </c>
       <c r="I40" t="n">
         <v>27.81178045956132</v>
@@ -7338,19 +7338,19 @@
         <v>98.79555387073958</v>
       </c>
       <c r="L40" t="n">
-        <v>409.1263369136169</v>
+        <v>158.2004078528402</v>
       </c>
       <c r="M40" t="n">
-        <v>749.5686305303693</v>
+        <v>498.6427014695927</v>
       </c>
       <c r="N40" t="n">
-        <v>1083.243620374534</v>
+        <v>832.3176913137578</v>
       </c>
       <c r="O40" t="n">
-        <v>1360.280548877724</v>
+        <v>1134.020041209374</v>
       </c>
       <c r="P40" t="n">
-        <v>1390.589022978066</v>
+        <v>1304.821397249425</v>
       </c>
       <c r="Q40" t="n">
         <v>1390.589022978066</v>
@@ -7368,16 +7368,16 @@
         <v>1105.20495972401</v>
       </c>
       <c r="V40" t="n">
-        <v>1105.20495972401</v>
+        <v>1040.756209129256</v>
       </c>
       <c r="W40" t="n">
-        <v>821.8745576551876</v>
+        <v>757.4258070604337</v>
       </c>
       <c r="X40" t="n">
-        <v>821.8745576551876</v>
+        <v>757.4258070604337</v>
       </c>
       <c r="Y40" t="n">
-        <v>598.7624964718309</v>
+        <v>757.4258070604337</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1081.288313018702</v>
+        <v>782.2319728222735</v>
       </c>
       <c r="C41" t="n">
-        <v>730.1294688323219</v>
+        <v>782.2319728222735</v>
       </c>
       <c r="D41" t="n">
-        <v>730.1294688323219</v>
+        <v>431.0731286358932</v>
       </c>
       <c r="E41" t="n">
-        <v>378.9706246459416</v>
+        <v>431.0731286358932</v>
       </c>
       <c r="F41" t="n">
-        <v>27.81178045956132</v>
+        <v>431.0731286358932</v>
       </c>
       <c r="G41" t="n">
-        <v>27.81178045956132</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="H41" t="n">
-        <v>27.81178045956132</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="I41" t="n">
         <v>27.81178045956132</v>
       </c>
       <c r="J41" t="n">
-        <v>97.37723928323618</v>
+        <v>97.37723928323614</v>
       </c>
       <c r="K41" t="n">
-        <v>234.617865934924</v>
+        <v>234.6178659349239</v>
       </c>
       <c r="L41" t="n">
         <v>428.8631441503474</v>
       </c>
       <c r="M41" t="n">
-        <v>665.5835775618962</v>
+        <v>665.5835775618963</v>
       </c>
       <c r="N41" t="n">
         <v>909.1333705158791</v>
@@ -7429,7 +7429,7 @@
         <v>1130.44261393245</v>
       </c>
       <c r="P41" t="n">
-        <v>1296.899282459866</v>
+        <v>1296.899282459867</v>
       </c>
       <c r="Q41" t="n">
         <v>1390.589022978066</v>
@@ -7438,25 +7438,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S41" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="T41" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="U41" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="V41" t="n">
-        <v>1390.589022978066</v>
+        <v>1275.046773070778</v>
       </c>
       <c r="W41" t="n">
-        <v>1390.589022978066</v>
+        <v>1133.390817008654</v>
       </c>
       <c r="X41" t="n">
-        <v>1081.288313018702</v>
+        <v>782.2319728222735</v>
       </c>
       <c r="Y41" t="n">
-        <v>1081.288313018702</v>
+        <v>782.2319728222735</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35.36986711395127</v>
+        <v>577.6149566917845</v>
       </c>
       <c r="C42" t="n">
-        <v>27.81178045956132</v>
+        <v>426.9607262518767</v>
       </c>
       <c r="D42" t="n">
-        <v>27.81178045956132</v>
+        <v>296.8717588733571</v>
       </c>
       <c r="E42" t="n">
-        <v>27.81178045956132</v>
+        <v>160.4252679842448</v>
       </c>
       <c r="F42" t="n">
-        <v>27.81178045956132</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="G42" t="n">
-        <v>27.81178045956132</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="H42" t="n">
-        <v>27.81178045956132</v>
+        <v>35.99346186737655</v>
       </c>
       <c r="I42" t="n">
         <v>27.81178045956132</v>
@@ -7511,7 +7511,7 @@
         <v>1269.380465704087</v>
       </c>
       <c r="Q42" t="n">
-        <v>1390.589022978066</v>
+        <v>1341.202308725335</v>
       </c>
       <c r="R42" t="n">
         <v>1390.589022978066</v>
@@ -7520,22 +7520,22 @@
         <v>1390.589022978066</v>
       </c>
       <c r="T42" t="n">
-        <v>1218.429150183506</v>
+        <v>1320.57258733616</v>
       </c>
       <c r="U42" t="n">
-        <v>1008.44474362504</v>
+        <v>1320.57258733616</v>
       </c>
       <c r="V42" t="n">
-        <v>785.9047419961068</v>
+        <v>1098.032585707227</v>
       </c>
       <c r="W42" t="n">
-        <v>555.7874961293937</v>
+        <v>1098.032585707227</v>
       </c>
       <c r="X42" t="n">
-        <v>366.4804184794054</v>
+        <v>908.7255080572386</v>
       </c>
       <c r="Y42" t="n">
-        <v>187.1662015549126</v>
+        <v>729.4112911327459</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>198.8788736383927</v>
+        <v>355.3428331805991</v>
       </c>
       <c r="C43" t="n">
-        <v>28.67375570438196</v>
+        <v>185.1377152465884</v>
       </c>
       <c r="D43" t="n">
-        <v>27.81178045956132</v>
+        <v>185.1377152465884</v>
       </c>
       <c r="E43" t="n">
-        <v>27.81178045956132</v>
+        <v>185.1377152465884</v>
       </c>
       <c r="F43" t="n">
         <v>27.81178045956132</v>
@@ -7596,25 +7596,25 @@
         <v>1390.589022978066</v>
       </c>
       <c r="S43" t="n">
-        <v>1390.589022978066</v>
+        <v>1332.377378378136</v>
       </c>
       <c r="T43" t="n">
-        <v>1390.589022978066</v>
+        <v>1332.377378378136</v>
       </c>
       <c r="U43" t="n">
-        <v>1390.589022978066</v>
+        <v>1046.99331512408</v>
       </c>
       <c r="V43" t="n">
-        <v>1124.60967779889</v>
+        <v>1046.99331512408</v>
       </c>
       <c r="W43" t="n">
-        <v>841.2792757300676</v>
+        <v>763.6629130552571</v>
       </c>
       <c r="X43" t="n">
-        <v>607.1989535130507</v>
+        <v>763.6629130552571</v>
       </c>
       <c r="Y43" t="n">
-        <v>384.086892329694</v>
+        <v>540.5508518719005</v>
       </c>
     </row>
     <row r="44">
@@ -7633,58 +7633,58 @@
         <v>1039.430178791686</v>
       </c>
       <c r="E44" t="n">
-        <v>688.2713346053058</v>
+        <v>1039.430178791686</v>
       </c>
       <c r="F44" t="n">
-        <v>337.1124904189253</v>
+        <v>688.2713346053054</v>
       </c>
       <c r="G44" t="n">
-        <v>27.81178045956134</v>
+        <v>381.0896056944559</v>
       </c>
       <c r="H44" t="n">
-        <v>27.81178045956134</v>
+        <v>79.91428444951288</v>
       </c>
       <c r="I44" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J44" t="n">
-        <v>97.37723928323658</v>
+        <v>97.37723928323614</v>
       </c>
       <c r="K44" t="n">
-        <v>234.6178659349243</v>
+        <v>234.6178659349235</v>
       </c>
       <c r="L44" t="n">
-        <v>428.8631441503477</v>
+        <v>428.8631441503469</v>
       </c>
       <c r="M44" t="n">
-        <v>665.5835775618966</v>
+        <v>665.5835775618958</v>
       </c>
       <c r="N44" t="n">
-        <v>909.1333705158795</v>
+        <v>909.1333705158786</v>
       </c>
       <c r="O44" t="n">
-        <v>1130.44261393245</v>
+        <v>1130.442613932449</v>
       </c>
       <c r="P44" t="n">
-        <v>1296.899282459867</v>
+        <v>1296.899282459866</v>
       </c>
       <c r="Q44" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T44" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U44" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="V44" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="W44" t="n">
         <v>1039.430178791686</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>569.4332752839694</v>
+        <v>765.0351540229607</v>
       </c>
       <c r="C45" t="n">
-        <v>418.7790448440615</v>
+        <v>614.3809235830529</v>
       </c>
       <c r="D45" t="n">
-        <v>288.6900774655418</v>
+        <v>484.2919562045333</v>
       </c>
       <c r="E45" t="n">
-        <v>152.2435865764295</v>
+        <v>347.845465315421</v>
       </c>
       <c r="F45" t="n">
-        <v>27.81178045956134</v>
+        <v>223.4136591985528</v>
       </c>
       <c r="G45" t="n">
-        <v>27.81178045956134</v>
+        <v>104.5506400663793</v>
       </c>
       <c r="H45" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I45" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J45" t="n">
-        <v>140.3018366928388</v>
+        <v>57.01289064179397</v>
       </c>
       <c r="K45" t="n">
-        <v>241.0118211498743</v>
+        <v>157.7228750988294</v>
       </c>
       <c r="L45" t="n">
-        <v>406.5384753872264</v>
+        <v>501.8936582859007</v>
       </c>
       <c r="M45" t="n">
-        <v>612.2822378062967</v>
+        <v>707.637420704971</v>
       </c>
       <c r="N45" t="n">
-        <v>956.4530209933683</v>
+        <v>928.1922275008377</v>
       </c>
       <c r="O45" t="n">
-        <v>1143.774713453421</v>
+        <v>1115.51391996089</v>
       </c>
       <c r="P45" t="n">
-        <v>1281.55039316661</v>
+        <v>1253.289599674079</v>
       </c>
       <c r="Q45" t="n">
-        <v>1341.202308725336</v>
+        <v>1341.202308725335</v>
       </c>
       <c r="R45" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S45" t="n">
-        <v>1390.589022978067</v>
+        <v>1277.888358601178</v>
       </c>
       <c r="T45" t="n">
-        <v>1218.429150183507</v>
+        <v>1105.728485806618</v>
       </c>
       <c r="U45" t="n">
-        <v>1130.661072516137</v>
+        <v>987.5751556518936</v>
       </c>
       <c r="V45" t="n">
-        <v>1130.661072516137</v>
+        <v>765.0351540229607</v>
       </c>
       <c r="W45" t="n">
-        <v>900.5438266494234</v>
+        <v>765.0351540229607</v>
       </c>
       <c r="X45" t="n">
-        <v>900.5438266494234</v>
+        <v>765.0351540229607</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2296097249307</v>
+        <v>765.0351540229607</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>386.6664349664311</v>
+        <v>464.8582188175686</v>
       </c>
       <c r="C46" t="n">
-        <v>339.0037056978441</v>
+        <v>352.3884132396854</v>
       </c>
       <c r="D46" t="n">
-        <v>183.3705926003588</v>
+        <v>352.3884132396854</v>
       </c>
       <c r="E46" t="n">
-        <v>27.81178045956134</v>
+        <v>352.3884132396854</v>
       </c>
       <c r="F46" t="n">
-        <v>27.81178045956134</v>
+        <v>195.0624784526584</v>
       </c>
       <c r="G46" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="H46" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="I46" t="n">
-        <v>27.81178045956134</v>
+        <v>27.81178045956132</v>
       </c>
       <c r="J46" t="n">
-        <v>27.81178045956134</v>
+        <v>67.5636489924843</v>
       </c>
       <c r="K46" t="n">
-        <v>223.898758080498</v>
+        <v>98.79555387073958</v>
       </c>
       <c r="L46" t="n">
-        <v>534.2295411233753</v>
+        <v>158.2004078528402</v>
       </c>
       <c r="M46" t="n">
-        <v>598.98151443158</v>
+        <v>498.6427014695927</v>
       </c>
       <c r="N46" t="n">
-        <v>932.6565042757452</v>
+        <v>832.3176913137578</v>
       </c>
       <c r="O46" t="n">
-        <v>1151.77641249552</v>
+        <v>1134.020041209374</v>
       </c>
       <c r="P46" t="n">
-        <v>1390.589022978067</v>
+        <v>1304.821397249425</v>
       </c>
       <c r="Q46" t="n">
-        <v>1390.589022978067</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="R46" t="n">
-        <v>1311.802563776866</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="S46" t="n">
-        <v>1311.802563776866</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="T46" t="n">
-        <v>1080.370578095145</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="U46" t="n">
-        <v>794.986514841089</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="V46" t="n">
-        <v>794.986514841089</v>
+        <v>1390.589022978066</v>
       </c>
       <c r="W46" t="n">
-        <v>794.986514841089</v>
+        <v>1107.258620909244</v>
       </c>
       <c r="X46" t="n">
-        <v>794.986514841089</v>
+        <v>873.1782986922266</v>
       </c>
       <c r="Y46" t="n">
-        <v>571.8744536577324</v>
+        <v>650.0662375088699</v>
       </c>
     </row>
   </sheetData>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>62.17842597500345</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>12.2928560227498</v>
       </c>
       <c r="R12" t="n">
-        <v>21.12823495340669</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,22 +8853,22 @@
         <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N13" t="n">
-        <v>119.451091351566</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O13" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.30104968682723</v>
+        <v>78.21120665688869</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.027671010420704</v>
+        <v>1.027671010420676</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>208.9948711537875</v>
+        <v>62.17842597500287</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>21.12823495340666</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.4725364634484</v>
+        <v>12.31913390494033</v>
       </c>
       <c r="K16" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N16" t="n">
-        <v>57.83166258301142</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O16" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P16" t="n">
-        <v>210.6102387699041</v>
+        <v>15.23883549545082</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>15.30104968682718</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>69.16959765075599</v>
       </c>
       <c r="K18" t="n">
-        <v>208.9948711537869</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>139.8252735030314</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9324,13 +9324,13 @@
         <v>12.31913390494034</v>
       </c>
       <c r="K19" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>170.0439266514487</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N19" t="n">
         <v>268.0356382773604</v>
@@ -9339,7 +9339,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>15.23883549545108</v>
       </c>
       <c r="Q19" t="n">
         <v>15.3010496868272</v>
@@ -9479,13 +9479,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>180.4486151007265</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>78.43182600531429</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>12.29285602274908</v>
       </c>
       <c r="R21" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>123.398383053217</v>
+        <v>224.8883270446489</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5176150018526</v>
+        <v>1.027671010420704</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>96.37328032617491</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>369.3363906166859</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>281.8498168762645</v>
       </c>
       <c r="P24" t="n">
-        <v>173.2513338679089</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>21.12823495340668</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9804,7 +9804,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M25" t="n">
-        <v>278.475071018735</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N25" t="n">
         <v>268.0356382773604</v>
@@ -9877,7 +9877,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>123.3983830532169</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>123.398383053217</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9953,10 +9953,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>369.3363906166859</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>173.2513338679089</v>
+        <v>50.50252833451461</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>21.12823495340668</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M28" t="n">
-        <v>278.4750710187352</v>
+        <v>278.475071018735</v>
       </c>
       <c r="N28" t="n">
         <v>268.0356382773604</v>
@@ -10114,7 +10114,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>224.8883270446491</v>
+        <v>123.3983830532169</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.027671010420704</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>369.3363906166859</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>223.136903820163</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.6169583822608047</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>123.3983830532172</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.398383053217</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10430,7 +10430,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>173.251333867909</v>
+        <v>173.2513338679094</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>158.4334249767868</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>100.447016129255</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>12.29285602274908</v>
       </c>
       <c r="R36" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.31913390494034</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>278.4750710187352</v>
@@ -10761,10 +10761,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
-        <v>15.23883549545199</v>
+        <v>141.9120019593026</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.3010496868272</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>208.4799024988714</v>
       </c>
       <c r="Q39" t="n">
-        <v>258.8804411060409</v>
+        <v>0.5149686549156343</v>
       </c>
       <c r="R39" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>278.4750710187352</v>
@@ -10995,13 +10995,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O40" t="n">
-        <v>229.4304324677195</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>141.9120019593026</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.3010496868272</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>62.1784259750029</v>
+        <v>12.29285602274908</v>
       </c>
       <c r="R42" t="n">
-        <v>21.12823495340668</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
-        <v>15.23883549545084</v>
+        <v>15.23883549545085</v>
       </c>
       <c r="Q43" t="n">
         <v>15.3010496868272</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.027671010420676</v>
+        <v>1.027671010420704</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,19 +11375,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>84.13024853640891</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>180.4486151007265</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>124.8646226173785</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>28.54625605306053</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.31913390494033</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>170.9283917774013</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>210.6102387699041</v>
+        <v>141.9120019593026</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.30104968682718</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>48.84254250976642</v>
       </c>
       <c r="C11" t="n">
-        <v>41.5964907375822</v>
+        <v>359.5110608353723</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23269,13 +23269,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>65.07823834080551</v>
       </c>
       <c r="G11" t="n">
         <v>406.8166861751919</v>
       </c>
       <c r="H11" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>51.58147895005204</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.23565693465753</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.5718775168518</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>19.64178893687892</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>137.1189507985394</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>75.97147101074981</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.099864593737081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23396,16 +23396,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>112.1910165390103</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -23430,7 +23430,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>133.368877258886</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H13" t="n">
         <v>145.0922268306807</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>79.09299947551641</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>77.47680587375783</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>50.91043389010429</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>59.16943043067533</v>
+        <v>59.16943043067539</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>51.58147895005202</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>253.0180469272126</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>19.64178893687887</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>70.38886161550369</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23576,25 +23576,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.6173588058907917</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,16 +23627,16 @@
         <v>111.5736577331194</v>
       </c>
       <c r="T15" t="n">
-        <v>170.4382740666146</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8845624928813</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>131.8310604615164</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>100.1062290421609</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.99859460918927</v>
+        <v>77.99859460918924</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>229.1176658249033</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>32.2810341219174</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.32058085351326</v>
+        <v>90.28209539451262</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>41.59649073758214</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -23791,16 +23791,16 @@
         <v>253.0180469272126</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>37.91082327175724</v>
+        <v>37.91082327175718</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.8785462440884</v>
+        <v>44.87854624408834</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>117.6743889408517</v>
       </c>
       <c r="H18" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>8.099864593737074</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>88.89480682894271</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>53.29262010657294</v>
       </c>
     </row>
     <row r="19">
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>40.11633900845182</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
@@ -23907,10 +23907,10 @@
         <v>165.5781910131661</v>
       </c>
       <c r="H19" t="n">
-        <v>145.0922268306807</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>21.74745857083778</v>
       </c>
       <c r="T19" t="n">
         <v>229.1176658249033</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23974,10 +23974,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>189.7658420439436</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>50.9104338901044</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.5718775168518</v>
@@ -24028,10 +24028,10 @@
         <v>253.0180469272126</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>52.11982728062577</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>56.30579750451268</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H21" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>8.099864593737074</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>24.19863504170635</v>
       </c>
       <c r="U21" t="n">
         <v>207.8845624928813</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>138.8123070213192</v>
       </c>
       <c r="G22" t="n">
         <v>165.5781910131661</v>
@@ -24147,7 +24147,7 @@
         <v>145.0922268306807</v>
       </c>
       <c r="I22" t="n">
-        <v>50.45448673103929</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T22" t="n">
         <v>229.1176658249033</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24217,13 +24217,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>72.64435346397738</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>406.8166861751919</v>
       </c>
       <c r="H23" t="n">
-        <v>207.26443757199</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I23" t="n">
         <v>51.58147895005203</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.5718775168518</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24290,10 +24290,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>46.75461623467801</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>111.5736577331194</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>72.97602628981072</v>
       </c>
     </row>
     <row r="25">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>36.01448474415422</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>89.85151399549099</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.0922268306807</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>101.8915690324706</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.4770235079133</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>293.3984937694237</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -24451,7 +24451,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>78.61754475908175</v>
+        <v>298.1635680324936</v>
       </c>
       <c r="I26" t="n">
         <v>51.58147895005203</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>211.5718775168518</v>
@@ -24524,19 +24524,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>122.2259456867303</v>
+        <v>40.59178982957204</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>21.16161299443664</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>130.64557422818</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S28" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>352.9670490787372</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>406.8166861751919</v>
+        <v>42.39316906732375</v>
       </c>
       <c r="H29" t="n">
         <v>298.1635680324936</v>
       </c>
       <c r="I29" t="n">
-        <v>51.58147895005203</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>114.3868274082149</v>
       </c>
       <c r="T29" t="n">
-        <v>211.5718775168518</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0180469272126</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24764,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.6743889408517</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>75.9714710107498</v>
       </c>
       <c r="I30" t="n">
-        <v>8.099864593737074</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,16 +24809,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>207.8845624928813</v>
+        <v>40.65388502694563</v>
       </c>
       <c r="V30" t="n">
-        <v>35.52973786354391</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>165.5781910131661</v>
       </c>
       <c r="H31" t="n">
-        <v>127.2732854695889</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>101.8915690324706</v>
+        <v>11.26772926543043</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5302226215153</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>14.27394262012365</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>94.87162960457768</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.5718775168518</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0180469272126</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -25001,16 +25001,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>46.75461623467778</v>
       </c>
       <c r="G33" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>75.9714710107498</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>111.5736577331194</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>169.44196273168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S34" t="n">
-        <v>183.4770235079133</v>
+        <v>179.3606559044936</v>
       </c>
       <c r="T34" t="n">
         <v>229.1176658249033</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>227.6017778715454</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>50.91043389010412</v>
+        <v>50.9104338901044</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>65.07823834080551</v>
       </c>
       <c r="G35" t="n">
-        <v>406.8166861751919</v>
+        <v>59.16943043067545</v>
       </c>
       <c r="H35" t="n">
         <v>298.1635680324936</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>211.5718775168518</v>
+        <v>19.75100206529646</v>
       </c>
       <c r="U35" t="n">
         <v>253.0180469272126</v>
       </c>
       <c r="V35" t="n">
-        <v>32.47803834374645</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>19.64178893687864</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>37.91082327175695</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25241,7 +25241,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
@@ -25253,7 +25253,7 @@
         <v>75.9714710107498</v>
       </c>
       <c r="I36" t="n">
-        <v>8.099864593737074</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>111.5736577331194</v>
       </c>
       <c r="T36" t="n">
-        <v>141.6651823476615</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>114.4087988550062</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>84.74086717033079</v>
+        <v>165.5781910131661</v>
       </c>
       <c r="H37" t="n">
         <v>145.0922268306807</v>
@@ -25362,25 +25362,25 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S37" t="n">
-        <v>183.4770235079133</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.1176658249033</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>121.5316106313772</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>48.84254250976642</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -25402,10 +25402,10 @@
         <v>50.9104338901044</v>
       </c>
       <c r="F38" t="n">
-        <v>65.07823834080551</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>59.16943043067544</v>
+        <v>59.16943043067545</v>
       </c>
       <c r="H38" t="n">
         <v>298.1635680324936</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.75100206529643</v>
+        <v>114.3868274082149</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.5718775168518</v>
       </c>
       <c r="U38" t="n">
         <v>253.0180469272126</v>
@@ -25459,7 +25459,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>86.31809912883477</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>135.0820259802211</v>
@@ -25484,13 +25484,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>117.6743889408517</v>
+        <v>1.463586807954016</v>
       </c>
       <c r="H39" t="n">
         <v>75.9714710107498</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6173588058910227</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.4382740666146</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -25551,25 +25551,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>78.66950632135703</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.0922268306807</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>101.8915690324706</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>199.5152886385777</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>41.5964907375822</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>33.93946175098245</v>
       </c>
       <c r="E41" t="n">
-        <v>50.9104338901044</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>65.07823834080551</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>406.8166861751919</v>
+        <v>59.16943043067545</v>
       </c>
       <c r="H41" t="n">
         <v>298.1635680324936</v>
       </c>
       <c r="I41" t="n">
-        <v>51.58147895005203</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>114.3868274082149</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>211.5718775168518</v>
@@ -25690,10 +25690,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>227.0496481798922</v>
       </c>
       <c r="X41" t="n">
-        <v>79.35037615650361</v>
+        <v>37.91082327175724</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25709,16 +25709,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>141.6651823476626</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>117.6743889408517</v>
@@ -25727,7 +25727,7 @@
         <v>75.9714710107498</v>
       </c>
       <c r="I42" t="n">
-        <v>8.099864593737074</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,16 +25760,16 @@
         <v>111.5736577331194</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>101.1220027811275</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.8845624928813</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>153.223426474138</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5781910131661</v>
@@ -25836,22 +25836,22 @@
         <v>77.99859460918927</v>
       </c>
       <c r="S43" t="n">
-        <v>183.4770235079133</v>
+        <v>125.8474953539821</v>
       </c>
       <c r="T43" t="n">
         <v>229.1176658249033</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5302226215153</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>50.91043389010417</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>65.07823834080529</v>
+        <v>65.07823834080551</v>
       </c>
       <c r="G44" t="n">
-        <v>100.6089833154217</v>
+        <v>102.706774553451</v>
       </c>
       <c r="H44" t="n">
-        <v>298.1635680324936</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>51.58147895005202</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>19.6417889368787</v>
+        <v>19.64178893687892</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>117.6743889408517</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>75.9714710107498</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>8.099864593737067</v>
+        <v>8.099864593737074</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>111.5736577331194</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>120.9941656021849</v>
+        <v>90.91276563970463</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>121.3169647787696</v>
+        <v>57.15795923256628</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5781910131661</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>145.0922268306807</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>77.99859460918927</v>
       </c>
       <c r="S46" t="n">
         <v>183.4770235079133</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.1176658249033</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5302226215153</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>432561.4622697456</v>
+        <v>432561.4622697455</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>432561.4622697455</v>
+        <v>432561.4622697456</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>432561.4622697455</v>
+        <v>432561.4622697456</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>537984.8893848009</v>
+        <v>537984.8893848008</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>537984.8893848009</v>
+        <v>537984.8893848008</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>537984.8893848008</v>
+        <v>537984.8893848006</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>537984.8893848008</v>
+        <v>537984.8893848007</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>432561.4622697459</v>
+        <v>432561.4622697457</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>432561.4622697458</v>
+        <v>432561.4622697456</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>432561.4622697455</v>
+        <v>432561.4622697457</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>432561.4622697457</v>
+        <v>432561.4622697456</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>449748.0532867926</v>
+      </c>
+      <c r="C2" t="n">
+        <v>449748.0532867924</v>
+      </c>
+      <c r="D2" t="n">
         <v>449748.0532867925</v>
       </c>
-      <c r="C2" t="n">
-        <v>449748.0532867925</v>
-      </c>
-      <c r="D2" t="n">
-        <v>449748.0532867926</v>
-      </c>
       <c r="E2" t="n">
+        <v>232196.0621931085</v>
+      </c>
+      <c r="F2" t="n">
         <v>232196.0621931086</v>
-      </c>
-      <c r="F2" t="n">
-        <v>232196.0621931087</v>
       </c>
       <c r="G2" t="n">
         <v>232196.0621931086</v>
       </c>
       <c r="H2" t="n">
-        <v>232196.0621931085</v>
+        <v>232196.0621931086</v>
       </c>
       <c r="I2" t="n">
         <v>275900.6451417273</v>
@@ -26346,7 +26346,7 @@
         <v>275900.6451417273</v>
       </c>
       <c r="M2" t="n">
-        <v>232196.0621931087</v>
+        <v>232196.0621931086</v>
       </c>
       <c r="N2" t="n">
         <v>232196.0621931085</v>
@@ -26355,7 +26355,7 @@
         <v>232196.0621931086</v>
       </c>
       <c r="P2" t="n">
-        <v>232196.0621931087</v>
+        <v>232196.0621931085</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>55879.22819363909</v>
+        <v>55879.22819363908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381300.1186220325</v>
+        <v>381300.1186220326</v>
       </c>
       <c r="C4" t="n">
-        <v>381300.1186220325</v>
+        <v>381300.1186220326</v>
       </c>
       <c r="D4" t="n">
-        <v>381300.1186220325</v>
+        <v>381300.1186220326</v>
       </c>
       <c r="E4" t="n">
+        <v>14910.01316670715</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14910.01316670713</v>
+      </c>
+      <c r="G4" t="n">
         <v>14910.01316670714</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14910.01316670715</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14910.01316670713</v>
       </c>
       <c r="H4" t="n">
         <v>14910.01316670713</v>
       </c>
       <c r="I4" t="n">
-        <v>41772.21168547865</v>
+        <v>41772.21168547866</v>
       </c>
       <c r="J4" t="n">
         <v>41772.21168547866</v>
       </c>
       <c r="K4" t="n">
+        <v>41772.21168547866</v>
+      </c>
+      <c r="L4" t="n">
         <v>41772.21168547867</v>
       </c>
-      <c r="L4" t="n">
-        <v>41772.21168547866</v>
-      </c>
       <c r="M4" t="n">
-        <v>14910.01316670716</v>
+        <v>14910.01316670713</v>
       </c>
       <c r="N4" t="n">
         <v>14910.01316670714</v>
@@ -26459,7 +26459,7 @@
         <v>14910.01316670713</v>
       </c>
       <c r="P4" t="n">
-        <v>14910.01316670715</v>
+        <v>14910.01316670714</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>33145.3173208985</v>
       </c>
       <c r="G5" t="n">
-        <v>33145.31732089849</v>
+        <v>33145.3173208985</v>
       </c>
       <c r="H5" t="n">
         <v>33145.31732089849</v>
@@ -26496,13 +26496,13 @@
         <v>40649.03394838674</v>
       </c>
       <c r="K5" t="n">
+        <v>40649.03394838674</v>
+      </c>
+      <c r="L5" t="n">
         <v>40649.03394838675</v>
       </c>
-      <c r="L5" t="n">
-        <v>40649.03394838674</v>
-      </c>
       <c r="M5" t="n">
-        <v>33145.3173208985</v>
+        <v>33145.31732089849</v>
       </c>
       <c r="N5" t="n">
         <v>33145.31732089849</v>
@@ -26511,7 +26511,7 @@
         <v>33145.31732089849</v>
       </c>
       <c r="P5" t="n">
-        <v>33145.3173208985</v>
+        <v>33145.31732089849</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34820.3346647601</v>
+        <v>34816.00509697362</v>
       </c>
       <c r="C6" t="n">
-        <v>34820.3346647601</v>
+        <v>34816.00509697344</v>
       </c>
       <c r="D6" t="n">
-        <v>34820.33466476016</v>
+        <v>34816.0050969735</v>
       </c>
       <c r="E6" t="n">
-        <v>-362207.5218395212</v>
+        <v>-363082.0593716824</v>
       </c>
       <c r="F6" t="n">
-        <v>184140.731705503</v>
+        <v>183266.1941733418</v>
       </c>
       <c r="G6" t="n">
-        <v>184140.731705503</v>
+        <v>183266.1941733418</v>
       </c>
       <c r="H6" t="n">
-        <v>184140.7317055029</v>
+        <v>183266.1941733418</v>
       </c>
       <c r="I6" t="n">
-        <v>160660.3891575608</v>
+        <v>159960.6699571942</v>
       </c>
       <c r="J6" t="n">
-        <v>193479.3995078619</v>
+        <v>192779.6803074952</v>
       </c>
       <c r="K6" t="n">
-        <v>193479.399507862</v>
+        <v>192779.6803074953</v>
       </c>
       <c r="L6" t="n">
-        <v>193479.3995078619</v>
+        <v>192779.6803074952</v>
       </c>
       <c r="M6" t="n">
-        <v>128261.5035118639</v>
+        <v>127386.9659797027</v>
       </c>
       <c r="N6" t="n">
-        <v>184140.7317055029</v>
+        <v>183266.1941733418</v>
       </c>
       <c r="O6" t="n">
-        <v>184140.731705503</v>
+        <v>183266.1941733418</v>
       </c>
       <c r="P6" t="n">
-        <v>184140.7317055031</v>
+        <v>183266.1941733417</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>550.842393194123</v>
       </c>
       <c r="F3" t="n">
-        <v>550.8423931941231</v>
+        <v>550.8423931941232</v>
       </c>
       <c r="G3" t="n">
         <v>550.8423931941231</v>
@@ -26779,7 +26779,7 @@
         <v>550.8423931941231</v>
       </c>
       <c r="P3" t="n">
-        <v>550.8423931941232</v>
+        <v>550.8423931941231</v>
       </c>
     </row>
     <row r="4">
@@ -26801,7 +26801,7 @@
         <v>347.6472557445165</v>
       </c>
       <c r="F4" t="n">
-        <v>347.6472557445166</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="G4" t="n">
         <v>347.6472557445165</v>
@@ -26816,13 +26816,13 @@
         <v>471.0636476439944</v>
       </c>
       <c r="K4" t="n">
+        <v>471.0636476439944</v>
+      </c>
+      <c r="L4" t="n">
         <v>471.0636476439945</v>
       </c>
-      <c r="L4" t="n">
-        <v>471.0636476439944</v>
-      </c>
       <c r="M4" t="n">
-        <v>347.6472557445168</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="N4" t="n">
         <v>347.6472557445165</v>
@@ -26831,7 +26831,7 @@
         <v>347.6472557445165</v>
       </c>
       <c r="P4" t="n">
-        <v>347.6472557445167</v>
+        <v>347.6472557445165</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>224.230863845039</v>
+        <v>224.2308638450389</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,34 +31989,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.214441781684915</v>
+        <v>2.214441781684916</v>
       </c>
       <c r="H14" t="n">
-        <v>22.67865189668064</v>
+        <v>22.67865189668065</v>
       </c>
       <c r="I14" t="n">
-        <v>85.37226678840779</v>
+        <v>85.3722667884078</v>
       </c>
       <c r="J14" t="n">
         <v>187.9479781682803</v>
       </c>
       <c r="K14" t="n">
-        <v>281.6852987870028</v>
+        <v>281.6852987870029</v>
       </c>
       <c r="L14" t="n">
-        <v>349.4555214632426</v>
+        <v>349.4555214632427</v>
       </c>
       <c r="M14" t="n">
-        <v>388.8366004982817</v>
+        <v>388.8366004982818</v>
       </c>
       <c r="N14" t="n">
-        <v>395.128383210494</v>
+        <v>395.1283832104941</v>
       </c>
       <c r="O14" t="n">
-        <v>373.1085277438646</v>
+        <v>373.1085277438647</v>
       </c>
       <c r="P14" t="n">
-        <v>318.4394962585182</v>
+        <v>318.4394962585183</v>
       </c>
       <c r="Q14" t="n">
         <v>239.1347999519271</v>
@@ -32025,10 +32025,10 @@
         <v>139.1029285687652</v>
       </c>
       <c r="S14" t="n">
-        <v>50.46159210014506</v>
+        <v>50.46159210014507</v>
       </c>
       <c r="T14" t="n">
-        <v>9.693718899325722</v>
+        <v>9.693718899325724</v>
       </c>
       <c r="U14" t="n">
         <v>0.1771553425347932</v>
@@ -32077,40 +32077,40 @@
         <v>40.79351685447045</v>
       </c>
       <c r="J15" t="n">
-        <v>111.9405282244774</v>
+        <v>111.9405282244775</v>
       </c>
       <c r="K15" t="n">
-        <v>191.3241923606418</v>
+        <v>191.3241923606419</v>
       </c>
       <c r="L15" t="n">
-        <v>257.2589875007082</v>
+        <v>257.2589875007083</v>
       </c>
       <c r="M15" t="n">
         <v>300.2091042907971</v>
       </c>
       <c r="N15" t="n">
-        <v>308.1547459813048</v>
+        <v>308.1547459813049</v>
       </c>
       <c r="O15" t="n">
-        <v>281.9013896566188</v>
+        <v>281.9013896566189</v>
       </c>
       <c r="P15" t="n">
         <v>226.2507180649598</v>
       </c>
       <c r="Q15" t="n">
-        <v>151.242613316243</v>
+        <v>151.2426133162431</v>
       </c>
       <c r="R15" t="n">
-        <v>73.56344262316991</v>
+        <v>73.56344262316992</v>
       </c>
       <c r="S15" t="n">
         <v>22.00771259601047</v>
       </c>
       <c r="T15" t="n">
-        <v>4.775699616466028</v>
+        <v>4.775699616466029</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07794939526331934</v>
+        <v>0.07794939526331936</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9933223483828448</v>
+        <v>0.9933223483828451</v>
       </c>
       <c r="H16" t="n">
-        <v>8.831538697440209</v>
+        <v>8.831538697440211</v>
       </c>
       <c r="I16" t="n">
-        <v>29.87191207682229</v>
+        <v>29.8719120768223</v>
       </c>
       <c r="J16" t="n">
-        <v>70.22789003066713</v>
+        <v>70.22789003066714</v>
       </c>
       <c r="K16" t="n">
         <v>115.4059964757523</v>
@@ -32171,25 +32171,25 @@
         <v>152.0054099120767</v>
       </c>
       <c r="O16" t="n">
-        <v>140.4015988423316</v>
+        <v>140.4015988423317</v>
       </c>
       <c r="P16" t="n">
         <v>120.1378229353215</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.1772013723126</v>
+        <v>83.17720137231261</v>
       </c>
       <c r="R16" t="n">
-        <v>44.66338486455954</v>
+        <v>44.66338486455955</v>
       </c>
       <c r="S16" t="n">
-        <v>17.31089947136284</v>
+        <v>17.31089947136285</v>
       </c>
       <c r="T16" t="n">
-        <v>4.244195488544881</v>
+        <v>4.244195488544882</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05418121900270069</v>
+        <v>0.0541812190027007</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34359,34 +34359,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.214441781684916</v>
+        <v>2.214441781684915</v>
       </c>
       <c r="H44" t="n">
-        <v>22.67865189668065</v>
+        <v>22.67865189668064</v>
       </c>
       <c r="I44" t="n">
-        <v>85.3722667884078</v>
+        <v>85.37226678840779</v>
       </c>
       <c r="J44" t="n">
         <v>187.9479781682803</v>
       </c>
       <c r="K44" t="n">
-        <v>281.6852987870029</v>
+        <v>281.6852987870024</v>
       </c>
       <c r="L44" t="n">
-        <v>349.4555214632427</v>
+        <v>349.4555214632426</v>
       </c>
       <c r="M44" t="n">
-        <v>388.8366004982818</v>
+        <v>388.8366004982817</v>
       </c>
       <c r="N44" t="n">
-        <v>395.1283832104941</v>
+        <v>395.128383210494</v>
       </c>
       <c r="O44" t="n">
-        <v>373.1085277438647</v>
+        <v>373.1085277438646</v>
       </c>
       <c r="P44" t="n">
-        <v>318.4394962585183</v>
+        <v>318.4394962585182</v>
       </c>
       <c r="Q44" t="n">
         <v>239.1347999519271</v>
@@ -34395,10 +34395,10 @@
         <v>139.1029285687652</v>
       </c>
       <c r="S44" t="n">
-        <v>50.46159210014507</v>
+        <v>50.46159210014506</v>
       </c>
       <c r="T44" t="n">
-        <v>9.693718899325724</v>
+        <v>9.693718899325722</v>
       </c>
       <c r="U44" t="n">
         <v>0.1771553425347932</v>
@@ -34447,40 +34447,40 @@
         <v>40.79351685447045</v>
       </c>
       <c r="J45" t="n">
-        <v>111.9405282244775</v>
+        <v>111.9405282244774</v>
       </c>
       <c r="K45" t="n">
-        <v>191.3241923606419</v>
+        <v>191.3241923606418</v>
       </c>
       <c r="L45" t="n">
-        <v>257.2589875007083</v>
+        <v>257.2589875007082</v>
       </c>
       <c r="M45" t="n">
         <v>300.2091042907971</v>
       </c>
       <c r="N45" t="n">
-        <v>308.1547459813049</v>
+        <v>308.1547459813048</v>
       </c>
       <c r="O45" t="n">
-        <v>281.9013896566189</v>
+        <v>281.9013896566188</v>
       </c>
       <c r="P45" t="n">
         <v>226.2507180649598</v>
       </c>
       <c r="Q45" t="n">
-        <v>151.2426133162431</v>
+        <v>151.242613316243</v>
       </c>
       <c r="R45" t="n">
-        <v>73.56344262316992</v>
+        <v>73.56344262316991</v>
       </c>
       <c r="S45" t="n">
         <v>22.00771259601047</v>
       </c>
       <c r="T45" t="n">
-        <v>4.775699616466029</v>
+        <v>4.775699616466028</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07794939526331936</v>
+        <v>0.07794939526331934</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9933223483828451</v>
+        <v>0.9933223483828448</v>
       </c>
       <c r="H46" t="n">
-        <v>8.831538697440211</v>
+        <v>8.831538697440209</v>
       </c>
       <c r="I46" t="n">
-        <v>29.8719120768223</v>
+        <v>29.87191207682229</v>
       </c>
       <c r="J46" t="n">
-        <v>70.22789003066714</v>
+        <v>70.22789003066713</v>
       </c>
       <c r="K46" t="n">
         <v>115.4059964757523</v>
@@ -34541,25 +34541,25 @@
         <v>152.0054099120767</v>
       </c>
       <c r="O46" t="n">
-        <v>140.4015988423317</v>
+        <v>140.4015988423316</v>
       </c>
       <c r="P46" t="n">
         <v>120.1378229353215</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.17720137231261</v>
+        <v>83.1772013723126</v>
       </c>
       <c r="R46" t="n">
-        <v>44.66338486455955</v>
+        <v>44.66338486455954</v>
       </c>
       <c r="S46" t="n">
-        <v>17.31089947136285</v>
+        <v>17.31089947136284</v>
       </c>
       <c r="T46" t="n">
-        <v>4.244195488544882</v>
+        <v>4.244195488544881</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0541812190027007</v>
+        <v>0.05418121900270069</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>167.1986406437899</v>
       </c>
       <c r="M12" t="n">
-        <v>270.0004082164886</v>
+        <v>207.8219822414851</v>
       </c>
       <c r="N12" t="n">
         <v>222.7826331271381</v>
@@ -35509,10 +35509,10 @@
         <v>139.1673532456451</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.254460160329</v>
+        <v>72.54731618307881</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.88556995225379</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,22 +35573,22 @@
         <v>198.0676541625623</v>
       </c>
       <c r="L13" t="n">
-        <v>60.0049030122228</v>
+        <v>313.4654374170477</v>
       </c>
       <c r="M13" t="n">
         <v>343.8811046633864</v>
       </c>
       <c r="N13" t="n">
-        <v>188.4608973612412</v>
+        <v>337.0454442870355</v>
       </c>
       <c r="O13" t="n">
-        <v>304.7498483794104</v>
+        <v>50.40484884863379</v>
       </c>
       <c r="P13" t="n">
-        <v>241.2248590732796</v>
+        <v>30.61462030337552</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>62.91015697006147</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>70.26814022593416</v>
+        <v>70.26814022593422</v>
       </c>
       <c r="K14" t="n">
-        <v>138.6268956077654</v>
+        <v>138.6268956077655</v>
       </c>
       <c r="L14" t="n">
-        <v>196.2073517327509</v>
+        <v>196.207351732751</v>
       </c>
       <c r="M14" t="n">
         <v>239.1115489005545</v>
       </c>
       <c r="N14" t="n">
-        <v>246.0098918727099</v>
+        <v>246.00989187271</v>
       </c>
       <c r="O14" t="n">
-        <v>223.5446903197682</v>
+        <v>223.5446903197683</v>
       </c>
       <c r="P14" t="n">
-        <v>168.138049017593</v>
+        <v>168.1380490175931</v>
       </c>
       <c r="Q14" t="n">
-        <v>94.63610153353491</v>
+        <v>94.63610153353497</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.49607089114409</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K15" t="n">
         <v>101.7272570273085</v>
@@ -35743,13 +35743,13 @@
         <v>189.21383076773</v>
       </c>
       <c r="P15" t="n">
-        <v>139.1673532456451</v>
+        <v>139.1673532456452</v>
       </c>
       <c r="Q15" t="n">
-        <v>269.2493313141165</v>
+        <v>122.4328861353319</v>
       </c>
       <c r="R15" t="n">
-        <v>49.8855699522538</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>40.15340255850806</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>198.0676541625623</v>
+        <v>31.54737866490436</v>
       </c>
       <c r="L16" t="n">
         <v>313.4654374170477</v>
       </c>
       <c r="M16" t="n">
-        <v>65.4060336446512</v>
+        <v>343.8811046633865</v>
       </c>
       <c r="N16" t="n">
-        <v>126.8414685926866</v>
+        <v>337.0454442870355</v>
       </c>
       <c r="O16" t="n">
         <v>304.7498483794105</v>
       </c>
       <c r="P16" t="n">
-        <v>241.2248590732796</v>
+        <v>45.8534557988264</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.63396538246508</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.49607089114409</v>
+        <v>98.66566854190008</v>
       </c>
       <c r="K18" t="n">
-        <v>310.7221281810954</v>
+        <v>101.7272570273085</v>
       </c>
       <c r="L18" t="n">
         <v>167.19864064379</v>
       </c>
       <c r="M18" t="n">
-        <v>207.8219822414852</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="N18" t="n">
         <v>222.7826331271382</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>198.0676541625623</v>
+        <v>31.54737866490433</v>
       </c>
       <c r="L19" t="n">
-        <v>230.0488296636715</v>
+        <v>313.4654374170477</v>
       </c>
       <c r="M19" t="n">
-        <v>65.4060336446512</v>
+        <v>343.8811046633864</v>
       </c>
       <c r="N19" t="n">
         <v>337.0454442870355</v>
@@ -36059,7 +36059,7 @@
         <v>304.7498483794105</v>
       </c>
       <c r="P19" t="n">
-        <v>241.2248590732796</v>
+        <v>45.85345579882662</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.49607089114409</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K21" t="n">
         <v>101.7272570273085</v>
       </c>
       <c r="L21" t="n">
-        <v>347.6472557445165</v>
+        <v>167.19864064379</v>
       </c>
       <c r="M21" t="n">
         <v>207.8219822414852</v>
@@ -36217,13 +36217,13 @@
         <v>189.21383076773</v>
       </c>
       <c r="P21" t="n">
-        <v>217.5991792509594</v>
+        <v>139.1673532456451</v>
       </c>
       <c r="Q21" t="n">
-        <v>60.25446016032903</v>
+        <v>72.54731618307811</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36378,10 +36378,10 @@
         <v>168.138049017593</v>
       </c>
       <c r="Q23" t="n">
-        <v>218.0344845867519</v>
+        <v>319.5244285781839</v>
       </c>
       <c r="R23" t="n">
-        <v>101.4899439914319</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>226.1980860221819</v>
+        <v>125.869351217319</v>
       </c>
       <c r="K24" t="n">
-        <v>101.7272570273085</v>
+        <v>471.0636476439944</v>
       </c>
       <c r="L24" t="n">
         <v>167.19864064379</v>
@@ -36451,16 +36451,16 @@
         <v>222.7826331271382</v>
       </c>
       <c r="O24" t="n">
-        <v>189.21383076773</v>
+        <v>471.0636476439944</v>
       </c>
       <c r="P24" t="n">
-        <v>312.418687113554</v>
+        <v>139.1673532456451</v>
       </c>
       <c r="Q24" t="n">
-        <v>387.9750290282536</v>
+        <v>60.25446016032903</v>
       </c>
       <c r="R24" t="n">
-        <v>49.8855699522538</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36524,7 +36524,7 @@
         <v>313.4654374170477</v>
       </c>
       <c r="M25" t="n">
-        <v>343.8811046633862</v>
+        <v>343.8811046633864</v>
       </c>
       <c r="N25" t="n">
         <v>337.0454442870355</v>
@@ -36597,7 +36597,7 @@
         <v>334.0588598943692</v>
       </c>
       <c r="K26" t="n">
-        <v>262.0252786609824</v>
+        <v>138.6268956077654</v>
       </c>
       <c r="L26" t="n">
         <v>196.2073517327509</v>
@@ -36615,7 +36615,7 @@
         <v>168.138049017593</v>
       </c>
       <c r="Q26" t="n">
-        <v>94.63610153353491</v>
+        <v>218.0344845867519</v>
       </c>
       <c r="R26" t="n">
         <v>101.4899439914319</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>226.1980860221819</v>
+        <v>29.49607089114409</v>
       </c>
       <c r="K27" t="n">
-        <v>101.7272570273085</v>
+        <v>471.0636476439944</v>
       </c>
       <c r="L27" t="n">
         <v>167.19864064379</v>
@@ -36691,13 +36691,13 @@
         <v>189.21383076773</v>
       </c>
       <c r="P27" t="n">
-        <v>312.418687113554</v>
+        <v>189.6698815801597</v>
       </c>
       <c r="Q27" t="n">
         <v>387.9750290282536</v>
       </c>
       <c r="R27" t="n">
-        <v>49.8855699522538</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36761,7 +36761,7 @@
         <v>313.4654374170477</v>
       </c>
       <c r="M28" t="n">
-        <v>343.8811046633864</v>
+        <v>343.8811046633862</v>
       </c>
       <c r="N28" t="n">
         <v>337.0454442870355</v>
@@ -36834,7 +36834,7 @@
         <v>334.0588598943692</v>
       </c>
       <c r="K29" t="n">
-        <v>363.5152226524145</v>
+        <v>262.0252786609824</v>
       </c>
       <c r="L29" t="n">
         <v>196.2073517327509</v>
@@ -36855,7 +36855,7 @@
         <v>94.63610153353491</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>101.4899439914319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>226.1980860221819</v>
+        <v>29.49607089114409</v>
       </c>
       <c r="K30" t="n">
-        <v>101.7272570273085</v>
+        <v>471.0636476439944</v>
       </c>
       <c r="L30" t="n">
         <v>167.19864064379</v>
       </c>
       <c r="M30" t="n">
-        <v>430.9588860616482</v>
+        <v>207.8219822414852</v>
       </c>
       <c r="N30" t="n">
         <v>222.7826331271382</v>
@@ -36928,13 +36928,13 @@
         <v>189.21383076773</v>
       </c>
       <c r="P30" t="n">
-        <v>139.1673532456451</v>
+        <v>139.7843116279059</v>
       </c>
       <c r="Q30" t="n">
         <v>387.9750290282536</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37086,10 +37086,10 @@
         <v>223.5446903197682</v>
       </c>
       <c r="P32" t="n">
-        <v>168.138049017593</v>
+        <v>291.5364320708102</v>
       </c>
       <c r="Q32" t="n">
-        <v>218.0344845867519</v>
+        <v>94.63610153353491</v>
       </c>
       <c r="R32" t="n">
         <v>101.4899439914319</v>
@@ -37150,7 +37150,7 @@
         <v>226.1980860221819</v>
       </c>
       <c r="K33" t="n">
-        <v>274.9785908952175</v>
+        <v>274.9785908952179</v>
       </c>
       <c r="L33" t="n">
         <v>167.19864064379</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.49607089114409</v>
+        <v>226.1980860221819</v>
       </c>
       <c r="K36" t="n">
         <v>101.7272570273085</v>
@@ -37399,16 +37399,16 @@
         <v>222.7826331271382</v>
       </c>
       <c r="O36" t="n">
-        <v>347.6472557445168</v>
+        <v>189.21383076773</v>
       </c>
       <c r="P36" t="n">
-        <v>239.6143693749001</v>
+        <v>139.1673532456451</v>
       </c>
       <c r="Q36" t="n">
-        <v>60.25446016032903</v>
+        <v>72.54731618307811</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>40.15340255850806</v>
       </c>
       <c r="K37" t="n">
         <v>31.54737866490433</v>
       </c>
       <c r="L37" t="n">
-        <v>313.4654374170477</v>
+        <v>60.00490301222283</v>
       </c>
       <c r="M37" t="n">
         <v>343.8811046633864</v>
@@ -37481,10 +37481,10 @@
         <v>304.7498483794105</v>
       </c>
       <c r="P37" t="n">
-        <v>45.85345579882754</v>
+        <v>172.5266222626781</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.63396538246508</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>189.21383076773</v>
       </c>
       <c r="P39" t="n">
-        <v>139.1673532456451</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="Q39" t="n">
-        <v>319.1349012663699</v>
+        <v>60.76942881524467</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>31.54737866490433</v>
       </c>
       <c r="L40" t="n">
-        <v>313.4654374170477</v>
+        <v>60.00490301222283</v>
       </c>
       <c r="M40" t="n">
         <v>343.8811046633864</v>
@@ -37715,13 +37715,13 @@
         <v>337.0454442870355</v>
       </c>
       <c r="O40" t="n">
-        <v>279.8352813163533</v>
+        <v>304.7498483794105</v>
       </c>
       <c r="P40" t="n">
-        <v>30.61462030337555</v>
+        <v>172.5266222626781</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.63396538246508</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>139.1673532456451</v>
       </c>
       <c r="Q42" t="n">
-        <v>122.4328861353319</v>
+        <v>72.54731618307811</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>70.26814022593422</v>
+        <v>70.26814022593416</v>
       </c>
       <c r="K44" t="n">
-        <v>138.6268956077655</v>
+        <v>138.626895607765</v>
       </c>
       <c r="L44" t="n">
-        <v>196.207351732751</v>
+        <v>196.2073517327509</v>
       </c>
       <c r="M44" t="n">
         <v>239.1115489005545</v>
       </c>
       <c r="N44" t="n">
-        <v>246.00989187271</v>
+        <v>246.0098918727099</v>
       </c>
       <c r="O44" t="n">
-        <v>223.5446903197683</v>
+        <v>223.5446903197682</v>
       </c>
       <c r="P44" t="n">
-        <v>168.1380490175931</v>
+        <v>168.138049017593</v>
       </c>
       <c r="Q44" t="n">
-        <v>94.63610153353497</v>
+        <v>94.63610153353491</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>113.626319427553</v>
+        <v>29.49607089114409</v>
       </c>
       <c r="K45" t="n">
         <v>101.7272570273085</v>
       </c>
       <c r="L45" t="n">
-        <v>167.19864064379</v>
+        <v>347.6472557445165</v>
       </c>
       <c r="M45" t="n">
         <v>207.8219822414852</v>
       </c>
       <c r="N45" t="n">
-        <v>347.6472557445167</v>
+        <v>222.7826331271382</v>
       </c>
       <c r="O45" t="n">
         <v>189.21383076773</v>
       </c>
       <c r="P45" t="n">
-        <v>139.1673532456452</v>
+        <v>139.1673532456451</v>
       </c>
       <c r="Q45" t="n">
-        <v>60.25446016032906</v>
+        <v>88.80071621338956</v>
       </c>
       <c r="R45" t="n">
-        <v>49.88556995225382</v>
+        <v>49.8855699522538</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.15340255850806</v>
       </c>
       <c r="K46" t="n">
-        <v>198.0676541625623</v>
+        <v>31.54737866490433</v>
       </c>
       <c r="L46" t="n">
-        <v>313.4654374170477</v>
+        <v>60.00490301222283</v>
       </c>
       <c r="M46" t="n">
-        <v>65.40603364465123</v>
+        <v>343.8811046633864</v>
       </c>
       <c r="N46" t="n">
         <v>337.0454442870355</v>
       </c>
       <c r="O46" t="n">
-        <v>221.3332406260351</v>
+        <v>304.7498483794105</v>
       </c>
       <c r="P46" t="n">
-        <v>241.2248590732797</v>
+        <v>172.5266222626781</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.63396538246508</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
